--- a/Excel-Sprint-Project-Tracker.xlsx
+++ b/Excel-Sprint-Project-Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEE0DB7-9B87-455E-9733-E48E1A6BEE94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519142FA-96A2-40CE-9B26-4D0377579E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Project Summary</t>
   </si>
@@ -172,6 +172,14 @@
       <t xml:space="preserve"> https://github.com/git-intel/Java_LockedMe_Repo</t>
     </r>
   </si>
+  <si>
+    <t>Sub Task</t>
+  </si>
+  <si>
+    <t>1.List files in directory
+2.File handling tools
+3.Exit   -  in Iteration after the selected operation is completed</t>
+  </si>
 </sst>
 </file>
 
@@ -184,7 +192,7 @@
     <numFmt numFmtId="167" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="168" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="62" x14ac:knownFonts="1">
+  <fonts count="64" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -582,8 +590,20 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="30">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -724,12 +744,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFD24726"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -738,6 +752,18 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -1133,7 +1159,7 @@
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1337,14 +1363,35 @@
     <xf numFmtId="0" fontId="58" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="57" fillId="27" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1366,35 +1413,23 @@
     <xf numFmtId="0" fontId="45" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="28" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="59" fillId="29" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="57" fillId="29" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="29" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="57" fillId="29" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="63" fillId="30" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="30" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="30" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -3393,8 +3428,8 @@
   </sheetPr>
   <dimension ref="A1:BY49"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P33" activeCellId="1" sqref="F40 P33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35:I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3462,15 +3497,15 @@
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="78" t="s">
+      <c r="C3" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="9"/>
       <c r="K3" s="61"/>
       <c r="L3" s="62" t="s">
@@ -3510,13 +3545,13 @@
     </row>
     <row r="4" spans="2:41" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
+      <c r="C4" s="85"/>
+      <c r="D4" s="85"/>
+      <c r="E4" s="85"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="85"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="85"/>
       <c r="J4" s="11"/>
       <c r="K4" s="46"/>
       <c r="L4" s="46"/>
@@ -3560,54 +3595,54 @@
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
       <c r="J5" s="28"/>
-      <c r="K5" s="80">
+      <c r="K5" s="87">
         <f>CHOOSE(WEEKDAY(D6+(H6-1)*7),5,4,3,2,1,0,6)+D6+(H6-1)*7</f>
         <v>44484</v>
       </c>
-      <c r="L5" s="80"/>
-      <c r="M5" s="80"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="80"/>
-      <c r="P5" s="80">
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87">
         <f>K5+7</f>
         <v>44491</v>
       </c>
-      <c r="Q5" s="80"/>
-      <c r="R5" s="80"/>
-      <c r="S5" s="80"/>
-      <c r="T5" s="80"/>
-      <c r="U5" s="80">
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87">
         <f>P5+7</f>
         <v>44498</v>
       </c>
-      <c r="V5" s="80"/>
-      <c r="W5" s="80"/>
-      <c r="X5" s="80"/>
-      <c r="Y5" s="80"/>
-      <c r="Z5" s="80">
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87">
         <f>U5+7</f>
         <v>44505</v>
       </c>
-      <c r="AA5" s="80"/>
-      <c r="AB5" s="80"/>
-      <c r="AC5" s="80"/>
-      <c r="AD5" s="80"/>
-      <c r="AE5" s="80">
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87">
         <f>Z5+7</f>
         <v>44512</v>
       </c>
-      <c r="AF5" s="80"/>
-      <c r="AG5" s="80"/>
-      <c r="AH5" s="80"/>
-      <c r="AI5" s="80"/>
-      <c r="AJ5" s="80">
+      <c r="AF5" s="87"/>
+      <c r="AG5" s="87"/>
+      <c r="AH5" s="87"/>
+      <c r="AI5" s="87"/>
+      <c r="AJ5" s="87">
         <f>AE5+7</f>
         <v>44519</v>
       </c>
-      <c r="AK5" s="80"/>
-      <c r="AL5" s="80"/>
-      <c r="AM5" s="80"/>
-      <c r="AN5" s="80"/>
+      <c r="AK5" s="87"/>
+      <c r="AL5" s="87"/>
+      <c r="AM5" s="87"/>
+      <c r="AN5" s="87"/>
       <c r="AO5" s="5"/>
     </row>
     <row r="6" spans="2:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3615,49 +3650,49 @@
       <c r="C6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="79">
+      <c r="D6" s="86">
         <v>44479</v>
       </c>
-      <c r="E6" s="79"/>
-      <c r="F6" s="82" t="s">
+      <c r="E6" s="86"/>
+      <c r="F6" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="82"/>
+      <c r="G6" s="89"/>
       <c r="H6" s="51">
         <v>1</v>
       </c>
       <c r="I6" s="64"/>
       <c r="J6" s="38"/>
-      <c r="K6" s="81"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="80"/>
-      <c r="AI6" s="80"/>
-      <c r="AJ6" s="80"/>
-      <c r="AK6" s="80"/>
-      <c r="AL6" s="80"/>
-      <c r="AM6" s="80"/>
-      <c r="AN6" s="80"/>
+      <c r="K6" s="88"/>
+      <c r="L6" s="87"/>
+      <c r="M6" s="87"/>
+      <c r="N6" s="87"/>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="87"/>
+      <c r="Y6" s="87"/>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="87"/>
+      <c r="AH6" s="87"/>
+      <c r="AI6" s="87"/>
+      <c r="AJ6" s="87"/>
+      <c r="AK6" s="87"/>
+      <c r="AL6" s="87"/>
+      <c r="AM6" s="87"/>
+      <c r="AN6" s="87"/>
       <c r="AO6" s="5"/>
     </row>
     <row r="7" spans="2:41" ht="6.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3670,36 +3705,36 @@
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="81"/>
-      <c r="L7" s="80"/>
-      <c r="M7" s="80"/>
-      <c r="N7" s="80"/>
-      <c r="O7" s="80"/>
-      <c r="P7" s="80"/>
-      <c r="Q7" s="80"/>
-      <c r="R7" s="80"/>
-      <c r="S7" s="80"/>
-      <c r="T7" s="80"/>
-      <c r="U7" s="80"/>
-      <c r="V7" s="80"/>
-      <c r="W7" s="80"/>
-      <c r="X7" s="80"/>
-      <c r="Y7" s="80"/>
-      <c r="Z7" s="80"/>
-      <c r="AA7" s="80"/>
-      <c r="AB7" s="80"/>
-      <c r="AC7" s="80"/>
-      <c r="AD7" s="80"/>
-      <c r="AE7" s="80"/>
-      <c r="AF7" s="80"/>
-      <c r="AG7" s="80"/>
-      <c r="AH7" s="80"/>
-      <c r="AI7" s="80"/>
-      <c r="AJ7" s="80"/>
-      <c r="AK7" s="80"/>
-      <c r="AL7" s="80"/>
-      <c r="AM7" s="80"/>
-      <c r="AN7" s="80"/>
+      <c r="K7" s="88"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="87"/>
+      <c r="Y7" s="87"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="87"/>
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="87"/>
+      <c r="AL7" s="87"/>
+      <c r="AM7" s="87"/>
+      <c r="AN7" s="87"/>
       <c r="AO7" s="5"/>
     </row>
     <row r="8" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3850,13 +3885,13 @@
     </row>
     <row r="9" spans="2:41" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="83"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="83"/>
-      <c r="I9" s="83"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
       <c r="J9" s="29"/>
       <c r="K9" s="33" t="str">
         <f>CHOOSE(WEEKDAY(K8,1),"S","M","T","W","T","F","S")</f>
@@ -4001,7 +4036,7 @@
       <c r="H10" s="52"/>
       <c r="I10" s="57">
         <f>AVERAGE(I12:I28)</f>
-        <v>0.37777777777777777</v>
+        <v>0.46666666666666656</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="41"/>
@@ -4108,10 +4143,10 @@
         <v>1 day(s)</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I12" s="59">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="J12" s="31"/>
       <c r="K12" s="15"/>
@@ -4225,7 +4260,7 @@
         <v>18</v>
       </c>
       <c r="I14" s="59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="J14" s="31"/>
       <c r="K14" s="15"/>
@@ -5065,49 +5100,51 @@
       <c r="BY31" s="68"/>
     </row>
     <row r="32" spans="2:77" s="73" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="85" t="s">
+      <c r="C32" s="79"/>
+      <c r="D32" s="79" t="s">
         <v>25</v>
       </c>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85"/>
-      <c r="G32" s="85"/>
-      <c r="H32" s="85"/>
-      <c r="I32" s="86"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="76"/>
-      <c r="U32" s="76"/>
-      <c r="V32" s="76"/>
-      <c r="W32" s="76"/>
-      <c r="X32" s="76"/>
-      <c r="Y32" s="76"/>
-      <c r="Z32" s="76"/>
-      <c r="AA32" s="76"/>
-      <c r="AB32" s="76"/>
-      <c r="AC32" s="76"/>
-      <c r="AD32" s="76"/>
-      <c r="AE32" s="76"/>
-      <c r="AF32" s="76"/>
-      <c r="AG32" s="76"/>
-      <c r="AH32" s="76"/>
-      <c r="AI32" s="76"/>
-      <c r="AJ32" s="76"/>
-      <c r="AK32" s="76"/>
-      <c r="AL32" s="76"/>
-      <c r="AM32" s="76"/>
-      <c r="AN32" s="76"/>
-      <c r="AO32" s="77"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="79"/>
+      <c r="I32" s="80"/>
+      <c r="K32" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="L32" s="92"/>
+      <c r="M32" s="92"/>
+      <c r="N32" s="92"/>
+      <c r="O32" s="92"/>
+      <c r="P32" s="92"/>
+      <c r="Q32" s="92"/>
+      <c r="R32" s="92"/>
+      <c r="S32" s="92"/>
+      <c r="T32" s="92"/>
+      <c r="U32" s="92"/>
+      <c r="V32" s="92"/>
+      <c r="W32" s="92"/>
+      <c r="X32" s="92"/>
+      <c r="Y32" s="92"/>
+      <c r="Z32" s="92"/>
+      <c r="AA32" s="92"/>
+      <c r="AB32" s="92"/>
+      <c r="AC32" s="92"/>
+      <c r="AD32" s="92"/>
+      <c r="AE32" s="92"/>
+      <c r="AF32" s="92"/>
+      <c r="AG32" s="92"/>
+      <c r="AH32" s="92"/>
+      <c r="AI32" s="92"/>
+      <c r="AJ32" s="92"/>
+      <c r="AK32" s="92"/>
+      <c r="AL32" s="92"/>
+      <c r="AM32" s="92"/>
+      <c r="AN32" s="92"/>
+      <c r="AO32" s="93"/>
       <c r="AX32" s="74"/>
       <c r="AY32" s="74"/>
       <c r="AZ32" s="74"/>
@@ -5117,89 +5154,115 @@
       <c r="BD32" s="74"/>
       <c r="BE32" s="74"/>
     </row>
-    <row r="33" spans="1:77" s="67" customFormat="1" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="89" t="s">
+    <row r="33" spans="1:77" s="67" customFormat="1" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="75" t="s">
         <v>26</v>
       </c>
-      <c r="C33" s="90"/>
-      <c r="D33" s="87" t="s">
+      <c r="C33" s="76"/>
+      <c r="D33" s="77" t="s">
         <v>35</v>
       </c>
-      <c r="E33" s="87"/>
-      <c r="F33" s="87"/>
-      <c r="G33" s="87"/>
-      <c r="H33" s="87"/>
-      <c r="I33" s="88"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="77"/>
+      <c r="G33" s="77"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="78"/>
       <c r="J33" s="71"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="71"/>
-      <c r="M33" s="71"/>
-      <c r="N33" s="71"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="71"/>
-      <c r="T33" s="71"/>
-      <c r="U33" s="71"/>
-      <c r="V33" s="71"/>
-      <c r="W33" s="71"/>
-      <c r="X33" s="71"/>
-      <c r="Y33" s="71"/>
-      <c r="Z33" s="71"/>
-      <c r="AA33" s="71"/>
-      <c r="AB33" s="71"/>
-      <c r="AC33" s="71"/>
+      <c r="K33" s="94" t="s">
+        <v>39</v>
+      </c>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="95"/>
+      <c r="Q33" s="95"/>
+      <c r="R33" s="95"/>
+      <c r="S33" s="95"/>
+      <c r="T33" s="95"/>
+      <c r="U33" s="95"/>
+      <c r="V33" s="95"/>
+      <c r="W33" s="95"/>
+      <c r="X33" s="95"/>
+      <c r="Y33" s="95"/>
+      <c r="Z33" s="95"/>
+      <c r="AA33" s="95"/>
+      <c r="AB33" s="95"/>
+      <c r="AC33" s="95"/>
+      <c r="AD33" s="95"/>
+      <c r="AE33" s="95"/>
+      <c r="AF33" s="95"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="95"/>
+      <c r="AJ33" s="95"/>
+      <c r="AK33" s="95"/>
+      <c r="AL33" s="95"/>
+      <c r="AM33" s="95"/>
+      <c r="AN33" s="95"/>
+      <c r="AO33" s="96"/>
       <c r="BY33" s="68"/>
     </row>
     <row r="34" spans="1:77" s="67" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="89" t="s">
+      <c r="B34" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="C34" s="90"/>
-      <c r="D34" s="91" t="s">
+      <c r="C34" s="76"/>
+      <c r="D34" s="82" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="91"/>
-      <c r="F34" s="91"/>
-      <c r="G34" s="91"/>
-      <c r="H34" s="91"/>
-      <c r="I34" s="92"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="82"/>
+      <c r="H34" s="82"/>
+      <c r="I34" s="83"/>
       <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="71"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="95"/>
+      <c r="M34" s="95"/>
+      <c r="N34" s="95"/>
+      <c r="O34" s="95"/>
+      <c r="P34" s="95"/>
+      <c r="Q34" s="95"/>
+      <c r="R34" s="95"/>
+      <c r="S34" s="95"/>
+      <c r="T34" s="95"/>
+      <c r="U34" s="95"/>
+      <c r="V34" s="95"/>
+      <c r="W34" s="95"/>
+      <c r="X34" s="95"/>
+      <c r="Y34" s="95"/>
+      <c r="Z34" s="95"/>
+      <c r="AA34" s="95"/>
+      <c r="AB34" s="95"/>
+      <c r="AC34" s="95"/>
+      <c r="AD34" s="95"/>
+      <c r="AE34" s="95"/>
+      <c r="AF34" s="95"/>
+      <c r="AG34" s="95"/>
+      <c r="AH34" s="95"/>
+      <c r="AI34" s="95"/>
+      <c r="AJ34" s="95"/>
+      <c r="AK34" s="95"/>
+      <c r="AL34" s="95"/>
+      <c r="AM34" s="95"/>
+      <c r="AN34" s="95"/>
+      <c r="AO34" s="96"/>
       <c r="BY34" s="68"/>
     </row>
     <row r="35" spans="1:77" s="67" customFormat="1" ht="225.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="89" t="s">
+      <c r="B35" s="75" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="90"/>
-      <c r="D35" s="91" t="s">
+      <c r="C35" s="76"/>
+      <c r="D35" s="82" t="s">
         <v>29</v>
       </c>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="92"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
+      <c r="H35" s="82"/>
+      <c r="I35" s="83"/>
       <c r="J35" s="71"/>
       <c r="K35" s="71"/>
       <c r="L35" s="71"/>
@@ -5223,18 +5286,18 @@
       <c r="BY35" s="68"/>
     </row>
     <row r="36" spans="1:77" s="67" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="89" t="s">
+      <c r="B36" s="75" t="s">
         <v>34</v>
       </c>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90" t="s">
+      <c r="C36" s="76"/>
+      <c r="D36" s="76" t="s">
         <v>31</v>
       </c>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="93"/>
+      <c r="E36" s="76"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="I36" s="84"/>
       <c r="J36" s="71"/>
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
@@ -5258,18 +5321,18 @@
       <c r="BY36" s="68"/>
     </row>
     <row r="37" spans="1:77" s="67" customFormat="1" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="89" t="s">
+      <c r="B37" s="75" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="90"/>
-      <c r="D37" s="87" t="s">
+      <c r="C37" s="76"/>
+      <c r="D37" s="77" t="s">
         <v>37</v>
       </c>
-      <c r="E37" s="87"/>
-      <c r="F37" s="87"/>
-      <c r="G37" s="87"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="88"/>
+      <c r="E37" s="77"/>
+      <c r="F37" s="77"/>
+      <c r="G37" s="77"/>
+      <c r="H37" s="77"/>
+      <c r="I37" s="78"/>
       <c r="J37" s="71"/>
       <c r="K37" s="71"/>
       <c r="L37" s="71"/>
@@ -5618,19 +5681,9 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <mergeCells count="23">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:I36"/>
+  <mergeCells count="25">
+    <mergeCell ref="K33:AO33"/>
+    <mergeCell ref="K34:AO34"/>
     <mergeCell ref="K32:AO32"/>
     <mergeCell ref="C3:I4"/>
     <mergeCell ref="D6:E6"/>
@@ -5642,6 +5695,18 @@
     <mergeCell ref="U5:Y7"/>
     <mergeCell ref="Z5:AD7"/>
     <mergeCell ref="AE5:AI7"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:I37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:I36"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:I34"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K8:AN8">

--- a/Excel-Sprint-Project-Tracker.xlsx
+++ b/Excel-Sprint-Project-Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{519142FA-96A2-40CE-9B26-4D0377579E35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8029A2DF-DAB5-45AD-A9D6-0A0CAF12CC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">'Excel Sprint Project Tracker'!$C1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Excel Sprint Project Tracker'!$C$3:$AN$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Excel Sprint Project Tracker'!$C$3:$AN$28</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Excel Sprint Project Tracker'!$6:$8</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -34,18 +34,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Project Summary</t>
   </si>
   <si>
     <t>PROJECT START DATE</t>
-  </si>
-  <si>
-    <t>Sprint 1</t>
-  </si>
-  <si>
-    <t>Sprint 2</t>
   </si>
   <si>
     <t>Sprint</t>
@@ -115,13 +109,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>ID0001</t>
-  </si>
-  <si>
     <t>The first option should return the current file names in ascending order. The root directory can be either empty or contain few files or folders in it</t>
-  </si>
-  <si>
-    <t>ID0002</t>
   </si>
   <si>
     <t>The second option should return the details of the user interface such as options displaying the following:
@@ -134,27 +122,6 @@
 	*Display the result upon successful operation
 	*Display the result upon unsuccessful operation
 4) Option to navigate back to the main context</t>
-  </si>
-  <si>
-    <t>ID0003</t>
-  </si>
-  <si>
-    <t>There should be a third option to close the application</t>
-  </si>
-  <si>
-    <t>ID0003 (1 &amp; 2)</t>
-  </si>
-  <si>
-    <t>ID0003 (3 &amp; 4)</t>
-  </si>
-  <si>
-    <t>ID0004</t>
-  </si>
-  <si>
-    <t>Code to display the welcome screen.The details of the user interface such as options displaying the user interaction information.Features to accept the user input to select one of the options listed</t>
-  </si>
-  <si>
-    <t>ID0005</t>
   </si>
   <si>
     <r>
@@ -176,9 +143,35 @@
     <t>Sub Task</t>
   </si>
   <si>
-    <t>1.List files in directory
-2.File handling tools
-3.Exit   -  in Iteration after the selected operation is completed</t>
+    <t>1.List files in directory, 2.File handling tools, 3.Exit   - main menu 
+1.Add a file to the existing directory list, 2.Delete a user specified file from the existing directory list , 3.Search a user specified file from the main directory,4.Go back to the main menu</t>
+  </si>
+  <si>
+    <t>Code to display the welcome screen.The details of the user interface such as options displaying the user interaction information.Features to accept the user input to select one of the options listed. There should be a third option to close the application</t>
+  </si>
+  <si>
+    <t>US0001</t>
+  </si>
+  <si>
+    <t>Sprint 1 - User Stories</t>
+  </si>
+  <si>
+    <t>Sprint 2 - User Stories</t>
+  </si>
+  <si>
+    <t>US0002</t>
+  </si>
+  <si>
+    <t>US0003</t>
+  </si>
+  <si>
+    <t>US0004</t>
+  </si>
+  <si>
+    <t>US0003 (1 &amp; 2)</t>
+  </si>
+  <si>
+    <t>US0003 (3 &amp; 4)</t>
   </si>
 </sst>
 </file>
@@ -1159,7 +1152,7 @@
     </xf>
     <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1363,35 +1356,23 @@
     <xf numFmtId="0" fontId="58" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="63" fillId="30" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="30" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="30" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="29" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="57" fillId="29" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="57" fillId="29" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1413,23 +1394,32 @@
     <xf numFmtId="0" fontId="45" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="29" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="29" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="60" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="29" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="30" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="30" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="30" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="27" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="47">
@@ -1481,21 +1471,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="26">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="15">
     <dxf>
       <fill>
         <patternFill>
@@ -1520,20 +1496,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -1549,55 +1511,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3426,10 +3339,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BY49"/>
+  <dimension ref="A1:BY47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A33" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35:I35"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3497,19 +3410,19 @@
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="85" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
+      <c r="C3" s="81" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
       <c r="J3" s="9"/>
       <c r="K3" s="61"/>
       <c r="L3" s="62" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
@@ -3517,7 +3430,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="63"/>
       <c r="R3" s="62" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
@@ -3545,13 +3458,13 @@
     </row>
     <row r="4" spans="2:41" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="85"/>
-      <c r="D4" s="85"/>
-      <c r="E4" s="85"/>
-      <c r="F4" s="85"/>
-      <c r="G4" s="85"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="85"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
       <c r="J4" s="11"/>
       <c r="K4" s="46"/>
       <c r="L4" s="46"/>
@@ -3595,54 +3508,54 @@
       <c r="H5" s="24"/>
       <c r="I5" s="24"/>
       <c r="J5" s="28"/>
-      <c r="K5" s="87">
+      <c r="K5" s="83">
         <f>CHOOSE(WEEKDAY(D6+(H6-1)*7),5,4,3,2,1,0,6)+D6+(H6-1)*7</f>
         <v>44484</v>
       </c>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87">
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83">
         <f>K5+7</f>
         <v>44491</v>
       </c>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87">
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83">
         <f>P5+7</f>
         <v>44498</v>
       </c>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87">
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83">
         <f>U5+7</f>
         <v>44505</v>
       </c>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87">
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83">
         <f>Z5+7</f>
         <v>44512</v>
       </c>
-      <c r="AF5" s="87"/>
-      <c r="AG5" s="87"/>
-      <c r="AH5" s="87"/>
-      <c r="AI5" s="87"/>
-      <c r="AJ5" s="87">
+      <c r="AF5" s="83"/>
+      <c r="AG5" s="83"/>
+      <c r="AH5" s="83"/>
+      <c r="AI5" s="83"/>
+      <c r="AJ5" s="83">
         <f>AE5+7</f>
         <v>44519</v>
       </c>
-      <c r="AK5" s="87"/>
-      <c r="AL5" s="87"/>
-      <c r="AM5" s="87"/>
-      <c r="AN5" s="87"/>
+      <c r="AK5" s="83"/>
+      <c r="AL5" s="83"/>
+      <c r="AM5" s="83"/>
+      <c r="AN5" s="83"/>
       <c r="AO5" s="5"/>
     </row>
     <row r="6" spans="2:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3650,49 +3563,49 @@
       <c r="C6" s="66" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="86">
+      <c r="D6" s="82">
         <v>44479</v>
       </c>
-      <c r="E6" s="86"/>
-      <c r="F6" s="89" t="s">
-        <v>22</v>
-      </c>
-      <c r="G6" s="89"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="85"/>
       <c r="H6" s="51">
         <v>1</v>
       </c>
       <c r="I6" s="64"/>
       <c r="J6" s="38"/>
-      <c r="K6" s="88"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="87"/>
-      <c r="Y6" s="87"/>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="87"/>
-      <c r="AH6" s="87"/>
-      <c r="AI6" s="87"/>
-      <c r="AJ6" s="87"/>
-      <c r="AK6" s="87"/>
-      <c r="AL6" s="87"/>
-      <c r="AM6" s="87"/>
-      <c r="AN6" s="87"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="83"/>
+      <c r="AH6" s="83"/>
+      <c r="AI6" s="83"/>
+      <c r="AJ6" s="83"/>
+      <c r="AK6" s="83"/>
+      <c r="AL6" s="83"/>
+      <c r="AM6" s="83"/>
+      <c r="AN6" s="83"/>
       <c r="AO6" s="5"/>
     </row>
     <row r="7" spans="2:41" ht="6.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3705,60 +3618,60 @@
       <c r="H7" s="25"/>
       <c r="I7" s="25"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="88"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="87"/>
-      <c r="Y7" s="87"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="87"/>
-      <c r="AF7" s="87"/>
-      <c r="AG7" s="87"/>
-      <c r="AH7" s="87"/>
-      <c r="AI7" s="87"/>
-      <c r="AJ7" s="87"/>
-      <c r="AK7" s="87"/>
-      <c r="AL7" s="87"/>
-      <c r="AM7" s="87"/>
-      <c r="AN7" s="87"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="83"/>
+      <c r="M7" s="83"/>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+      <c r="P7" s="83"/>
+      <c r="Q7" s="83"/>
+      <c r="R7" s="83"/>
+      <c r="S7" s="83"/>
+      <c r="T7" s="83"/>
+      <c r="U7" s="83"/>
+      <c r="V7" s="83"/>
+      <c r="W7" s="83"/>
+      <c r="X7" s="83"/>
+      <c r="Y7" s="83"/>
+      <c r="Z7" s="83"/>
+      <c r="AA7" s="83"/>
+      <c r="AB7" s="83"/>
+      <c r="AC7" s="83"/>
+      <c r="AD7" s="83"/>
+      <c r="AE7" s="83"/>
+      <c r="AF7" s="83"/>
+      <c r="AG7" s="83"/>
+      <c r="AH7" s="83"/>
+      <c r="AI7" s="83"/>
+      <c r="AJ7" s="83"/>
+      <c r="AK7" s="83"/>
+      <c r="AL7" s="83"/>
+      <c r="AM7" s="83"/>
+      <c r="AN7" s="83"/>
       <c r="AO7" s="5"/>
     </row>
     <row r="8" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="48" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="F8" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="G8" s="65" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="H8" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="I8" s="44" t="s">
         <v>8</v>
-      </c>
-      <c r="H8" s="50" t="s">
-        <v>9</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>10</v>
       </c>
       <c r="J8" s="29"/>
       <c r="K8" s="37">
@@ -3885,13 +3798,13 @@
     </row>
     <row r="9" spans="2:41" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
-      <c r="I9" s="90"/>
+      <c r="C9" s="86"/>
+      <c r="D9" s="86"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="86"/>
+      <c r="H9" s="86"/>
+      <c r="I9" s="86"/>
       <c r="J9" s="29"/>
       <c r="K9" s="33" t="str">
         <f>CHOOSE(WEEKDAY(K8,1),"S","M","T","W","T","F","S")</f>
@@ -4022,11 +3935,11 @@
       </c>
       <c r="D10" s="44"/>
       <c r="E10" s="45">
-        <f>IF(MIN(E11:E29)&gt;0,MIN(E11:E29),"")</f>
+        <f>IF(MIN(E11:E28)&gt;0,MIN(E11:E28),"")</f>
         <v>43344</v>
       </c>
       <c r="F10" s="45">
-        <f>IF(MAX(F11:F29)&gt;0,MAX(F11:F29),"")</f>
+        <f>IF(MAX(F11:F28)&gt;0,MAX(F11:F28),"")</f>
         <v>44491</v>
       </c>
       <c r="G10" s="56" t="str">
@@ -4035,8 +3948,8 @@
       </c>
       <c r="H10" s="52"/>
       <c r="I10" s="57">
-        <f>AVERAGE(I12:I28)</f>
-        <v>0.46666666666666656</v>
+        <f>AVERAGE(I12:I27)</f>
+        <v>0.55000000000000004</v>
       </c>
       <c r="J10" s="29"/>
       <c r="K10" s="41"/>
@@ -4074,15 +3987,15 @@
     <row r="11" spans="2:41" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="42" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="D11" s="36"/>
       <c r="E11" s="39">
-        <f>IF(MIN(E12:E16)&gt;0,MIN(E12:E16),"")</f>
+        <f>IF(MIN(E12:E15)&gt;0,MIN(E12:E15),"")</f>
         <v>44481</v>
       </c>
       <c r="F11" s="39">
-        <f>IF(MAX(F12:F16)&gt;0,MAX(F12:F16),"")</f>
+        <f>IF(MAX(F12:F15)&gt;0,MAX(F12:F15),"")</f>
         <v>44484</v>
       </c>
       <c r="G11" s="53" t="str">
@@ -4127,10 +4040,10 @@
     <row r="12" spans="2:41" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E12" s="12">
         <v>44481</v>
@@ -4143,10 +4056,10 @@
         <v>1 day(s)</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I12" s="59">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J12" s="31"/>
       <c r="K12" s="15"/>
@@ -4184,10 +4097,10 @@
     <row r="13" spans="2:41" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="13" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E13" s="12">
         <v>44482</v>
@@ -4200,7 +4113,7 @@
         <v>1 day(s)</v>
       </c>
       <c r="H13" s="55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I13" s="59">
         <v>1</v>
@@ -4241,26 +4154,26 @@
     <row r="14" spans="2:41" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="13" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E14" s="12">
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="F14" s="12">
-        <v>44482</v>
+        <v>44484</v>
       </c>
       <c r="G14" s="54" t="str">
         <f>IF(OR(E14=0,F14=0),"",NETWORKDAYS(E14,F14)&amp; " day(s)")</f>
         <v>1 day(s)</v>
       </c>
       <c r="H14" s="55" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I14" s="59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" s="31"/>
       <c r="K14" s="15"/>
@@ -4297,28 +4210,13 @@
     </row>
     <row r="15" spans="2:41" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="12">
-        <v>44484</v>
-      </c>
-      <c r="F15" s="12">
-        <v>44484</v>
-      </c>
-      <c r="G15" s="54" t="str">
-        <f>IF(OR(E15=0,F15=0),"",NETWORKDAYS(E15,F15)&amp; " day(s)")</f>
-        <v>1 day(s)</v>
-      </c>
-      <c r="H15" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="59">
-        <v>0</v>
-      </c>
+      <c r="C15" s="13"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
+      <c r="I15" s="59"/>
       <c r="J15" s="31"/>
       <c r="K15" s="15"/>
       <c r="L15" s="15"/>
@@ -4352,124 +4250,139 @@
       <c r="AN15" s="15"/>
       <c r="AO15" s="5"/>
     </row>
-    <row r="16" spans="2:41" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:41" ht="18" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="59"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
-      <c r="T16" s="15"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-      <c r="X16" s="15"/>
-      <c r="Y16" s="15"/>
-      <c r="Z16" s="15"/>
-      <c r="AA16" s="15"/>
-      <c r="AB16" s="15"/>
-      <c r="AC16" s="15"/>
-      <c r="AD16" s="15"/>
-      <c r="AE16" s="15"/>
-      <c r="AF16" s="15"/>
-      <c r="AG16" s="15"/>
-      <c r="AH16" s="15"/>
-      <c r="AI16" s="15"/>
-      <c r="AJ16" s="15"/>
-      <c r="AK16" s="15"/>
-      <c r="AL16" s="15"/>
-      <c r="AM16" s="15"/>
-      <c r="AN16" s="15"/>
+      <c r="C16" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="39">
+        <f>IF(MIN(E17:E20)&gt;0,MIN(E17:E20),"")</f>
+        <v>44488</v>
+      </c>
+      <c r="F16" s="39">
+        <f>IF(MAX(F17:F20)&gt;0,MAX(F17:F20),"")</f>
+        <v>44491</v>
+      </c>
+      <c r="G16" s="53" t="str">
+        <f>IF(OR(E16="",F16=""),"",NETWORKDAYS(E16,F16)&amp; " day(s)")</f>
+        <v>4 day(s)</v>
+      </c>
+      <c r="H16" s="53"/>
+      <c r="I16" s="58"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="40"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="40"/>
+      <c r="S16" s="40"/>
+      <c r="T16" s="40"/>
+      <c r="U16" s="40"/>
+      <c r="V16" s="40"/>
+      <c r="W16" s="40"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="40"/>
+      <c r="AA16" s="40"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="40"/>
+      <c r="AE16" s="40"/>
+      <c r="AF16" s="40"/>
+      <c r="AG16" s="40"/>
+      <c r="AH16" s="40"/>
+      <c r="AI16" s="40"/>
+      <c r="AJ16" s="40"/>
+      <c r="AK16" s="40"/>
+      <c r="AL16" s="40"/>
+      <c r="AM16" s="40"/>
+      <c r="AN16" s="40"/>
       <c r="AO16" s="5"/>
     </row>
-    <row r="17" spans="2:77" ht="18" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:77" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="C17" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="36"/>
-      <c r="E17" s="39">
-        <f>IF(MIN(E18:E21)&gt;0,MIN(E18:E21),"")</f>
+      <c r="C17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E17" s="12">
         <v>44488</v>
       </c>
-      <c r="F17" s="39">
-        <f>IF(MAX(F18:F21)&gt;0,MAX(F18:F21),"")</f>
-        <v>44491</v>
-      </c>
-      <c r="G17" s="53" t="str">
-        <f>IF(OR(E17="",F17=""),"",NETWORKDAYS(E17,F17)&amp; " day(s)")</f>
-        <v>4 day(s)</v>
-      </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="58"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="40"/>
-      <c r="L17" s="40"/>
-      <c r="M17" s="40"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="40"/>
-      <c r="P17" s="40"/>
-      <c r="Q17" s="40"/>
-      <c r="R17" s="40"/>
-      <c r="S17" s="40"/>
-      <c r="T17" s="40"/>
-      <c r="U17" s="40"/>
-      <c r="V17" s="40"/>
-      <c r="W17" s="40"/>
-      <c r="X17" s="40"/>
-      <c r="Y17" s="40"/>
-      <c r="Z17" s="40"/>
-      <c r="AA17" s="40"/>
-      <c r="AB17" s="40"/>
-      <c r="AC17" s="40"/>
-      <c r="AD17" s="40"/>
-      <c r="AE17" s="40"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="40"/>
-      <c r="AH17" s="40"/>
-      <c r="AI17" s="40"/>
-      <c r="AJ17" s="40"/>
-      <c r="AK17" s="40"/>
-      <c r="AL17" s="40"/>
-      <c r="AM17" s="40"/>
-      <c r="AN17" s="40"/>
+      <c r="F17" s="12">
+        <v>44489</v>
+      </c>
+      <c r="G17" s="54" t="str">
+        <f>IF(OR(E17=0,F17=0),"",NETWORKDAYS(E17,F17)&amp; " day(s)")</f>
+        <v>2 day(s)</v>
+      </c>
+      <c r="H17" s="55" t="s">
+        <v>14</v>
+      </c>
+      <c r="I17" s="59">
+        <v>0</v>
+      </c>
+      <c r="J17" s="31"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
+      <c r="N17" s="15"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="15"/>
+      <c r="Q17" s="15"/>
+      <c r="R17" s="15"/>
+      <c r="S17" s="15"/>
+      <c r="T17" s="15"/>
+      <c r="U17" s="15"/>
+      <c r="V17" s="15"/>
+      <c r="W17" s="15"/>
+      <c r="X17" s="15"/>
+      <c r="Y17" s="15"/>
+      <c r="Z17" s="15"/>
+      <c r="AA17" s="15"/>
+      <c r="AB17" s="15"/>
+      <c r="AC17" s="15"/>
+      <c r="AD17" s="15"/>
+      <c r="AE17" s="15"/>
+      <c r="AF17" s="15"/>
+      <c r="AG17" s="15"/>
+      <c r="AH17" s="15"/>
+      <c r="AI17" s="15"/>
+      <c r="AJ17" s="15"/>
+      <c r="AK17" s="15"/>
+      <c r="AL17" s="15"/>
+      <c r="AM17" s="15"/>
+      <c r="AN17" s="15"/>
       <c r="AO17" s="5"/>
     </row>
     <row r="18" spans="2:77" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="13" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E18" s="12">
-        <v>44488</v>
+        <v>44491</v>
       </c>
       <c r="F18" s="12">
-        <v>44489</v>
+        <v>44491</v>
       </c>
       <c r="G18" s="54" t="str">
         <f>IF(OR(E18=0,F18=0),"",NETWORKDAYS(E18,F18)&amp; " day(s)")</f>
-        <v>2 day(s)</v>
+        <v>1 day(s)</v>
       </c>
       <c r="H18" s="55" t="s">
         <v>16</v>
       </c>
       <c r="I18" s="59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J18" s="31"/>
       <c r="K18" s="15"/>
@@ -4506,28 +4419,13 @@
     </row>
     <row r="19" spans="2:77" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="12">
-        <v>44491</v>
-      </c>
-      <c r="F19" s="12">
-        <v>44491</v>
-      </c>
-      <c r="G19" s="54" t="str">
-        <f>IF(OR(E19=0,F19=0),"",NETWORKDAYS(E19,F19)&amp; " day(s)")</f>
-        <v>1 day(s)</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="59">
-        <v>0</v>
-      </c>
+      <c r="C19" s="13"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="54"/>
+      <c r="H19" s="55"/>
+      <c r="I19" s="59"/>
       <c r="J19" s="31"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
@@ -4603,7 +4501,7 @@
       <c r="AN20" s="15"/>
       <c r="AO20" s="5"/>
     </row>
-    <row r="21" spans="2:77" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="13"/>
       <c r="D21" s="14"/>
@@ -4773,13 +4671,28 @@
     </row>
     <row r="25" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="54"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="59"/>
+      <c r="C25" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E25" s="12">
+        <v>43344</v>
+      </c>
+      <c r="F25" s="12">
+        <v>43348</v>
+      </c>
+      <c r="G25" s="54" t="str">
+        <f>IF(OR(E25=0,F25=0),"",NETWORKDAYS(E25,F25)&amp; " day(s)")</f>
+        <v>3 day(s)</v>
+      </c>
+      <c r="H25" s="55" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="59">
+        <v>1</v>
+      </c>
       <c r="J25" s="31"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -4816,26 +4729,26 @@
     <row r="26" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E26" s="12">
-        <v>43344</v>
+        <v>43358</v>
       </c>
       <c r="F26" s="12">
-        <v>43348</v>
+        <v>43366</v>
       </c>
       <c r="G26" s="54" t="str">
         <f>IF(OR(E26=0,F26=0),"",NETWORKDAYS(E26,F26)&amp; " day(s)")</f>
-        <v>3 day(s)</v>
+        <v>5 day(s)</v>
       </c>
       <c r="H26" s="55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I26" s="59">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="J26" s="31"/>
       <c r="K26" s="15"/>
@@ -4873,26 +4786,26 @@
     <row r="27" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E27" s="12">
-        <v>43358</v>
+        <v>43372</v>
       </c>
       <c r="F27" s="12">
-        <v>43366</v>
+        <v>43380</v>
       </c>
       <c r="G27" s="54" t="str">
         <f>IF(OR(E27=0,F27=0),"",NETWORKDAYS(E27,F27)&amp; " day(s)")</f>
         <v>5 day(s)</v>
       </c>
       <c r="H27" s="55" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I27" s="59">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="J27" s="31"/>
       <c r="K27" s="15"/>
@@ -4929,28 +4842,13 @@
     </row>
     <row r="28" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D28" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="12">
-        <v>43372</v>
-      </c>
-      <c r="F28" s="12">
-        <v>43380</v>
-      </c>
-      <c r="G28" s="54" t="str">
-        <f>IF(OR(E28=0,F28=0),"",NETWORKDAYS(E28,F28)&amp; " day(s)")</f>
-        <v>5 day(s)</v>
-      </c>
-      <c r="H28" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="59">
-        <v>0.25</v>
-      </c>
+      <c r="C28" s="13"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
+      <c r="G28" s="54"/>
+      <c r="H28" s="55"/>
+      <c r="I28" s="59"/>
       <c r="J28" s="31"/>
       <c r="K28" s="15"/>
       <c r="L28" s="15"/>
@@ -4984,285 +4882,278 @@
       <c r="AN28" s="15"/>
       <c r="AO28" s="5"/>
     </row>
-    <row r="29" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="16"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="15"/>
-      <c r="L29" s="15"/>
-      <c r="M29" s="15"/>
-      <c r="N29" s="15"/>
-      <c r="O29" s="15"/>
-      <c r="P29" s="15"/>
-      <c r="Q29" s="15"/>
-      <c r="R29" s="15"/>
-      <c r="S29" s="15"/>
-      <c r="T29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="15"/>
-      <c r="Y29" s="15"/>
-      <c r="Z29" s="15"/>
-      <c r="AA29" s="15"/>
-      <c r="AB29" s="15"/>
-      <c r="AC29" s="15"/>
-      <c r="AD29" s="15"/>
-      <c r="AE29" s="15"/>
-      <c r="AF29" s="15"/>
-      <c r="AG29" s="15"/>
-      <c r="AH29" s="15"/>
-      <c r="AI29" s="15"/>
-      <c r="AJ29" s="15"/>
-      <c r="AK29" s="15"/>
-      <c r="AL29" s="15"/>
-      <c r="AM29" s="15"/>
-      <c r="AN29" s="15"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="19"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="32"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
+      <c r="AG29" s="18"/>
+      <c r="AH29" s="18"/>
+      <c r="AI29" s="18"/>
+      <c r="AJ29" s="18"/>
+      <c r="AK29" s="18"/>
+      <c r="AL29" s="18"/>
+      <c r="AM29" s="18"/>
+      <c r="AN29" s="18"/>
       <c r="AO29" s="5"/>
     </row>
-    <row r="30" spans="2:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="5"/>
-      <c r="C30" s="17"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="19"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="O30" s="18"/>
-      <c r="P30" s="18"/>
-      <c r="Q30" s="18"/>
-      <c r="R30" s="18"/>
-      <c r="S30" s="18"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
-      <c r="W30" s="18"/>
-      <c r="X30" s="18"/>
-      <c r="Y30" s="18"/>
-      <c r="Z30" s="18"/>
-      <c r="AA30" s="18"/>
-      <c r="AB30" s="18"/>
-      <c r="AC30" s="18"/>
-      <c r="AD30" s="18"/>
-      <c r="AE30" s="18"/>
-      <c r="AF30" s="18"/>
-      <c r="AG30" s="18"/>
-      <c r="AH30" s="18"/>
-      <c r="AI30" s="18"/>
-      <c r="AJ30" s="18"/>
-      <c r="AK30" s="18"/>
-      <c r="AL30" s="18"/>
-      <c r="AM30" s="18"/>
-      <c r="AN30" s="18"/>
-      <c r="AO30" s="5"/>
+    <row r="30" spans="2:77" s="67" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B30" s="69"/>
+      <c r="C30" s="70"/>
+      <c r="D30" s="70"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="71"/>
+      <c r="H30" s="71"/>
+      <c r="I30" s="71"/>
+      <c r="J30" s="71"/>
+      <c r="K30" s="71"/>
+      <c r="L30" s="71"/>
+      <c r="M30" s="71"/>
+      <c r="N30" s="71"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="71"/>
+      <c r="T30" s="71"/>
+      <c r="U30" s="71"/>
+      <c r="V30" s="71"/>
+      <c r="W30" s="71"/>
+      <c r="X30" s="71"/>
+      <c r="Y30" s="71"/>
+      <c r="Z30" s="71"/>
+      <c r="AA30" s="71"/>
+      <c r="AB30" s="71"/>
+      <c r="AC30" s="71"/>
+      <c r="BY30" s="68"/>
     </row>
-    <row r="31" spans="2:77" s="67" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="69"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="71"/>
-      <c r="F31" s="71"/>
-      <c r="G31" s="71"/>
-      <c r="H31" s="71"/>
-      <c r="I31" s="71"/>
-      <c r="J31" s="71"/>
-      <c r="K31" s="71"/>
-      <c r="L31" s="71"/>
-      <c r="M31" s="71"/>
-      <c r="N31" s="71"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="71"/>
-      <c r="T31" s="71"/>
-      <c r="U31" s="71"/>
-      <c r="V31" s="71"/>
-      <c r="W31" s="71"/>
-      <c r="X31" s="71"/>
-      <c r="Y31" s="71"/>
-      <c r="Z31" s="71"/>
-      <c r="AA31" s="71"/>
-      <c r="AB31" s="71"/>
-      <c r="AC31" s="71"/>
-      <c r="BY31" s="68"/>
+    <row r="31" spans="2:77" s="73" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="93"/>
+      <c r="D31" s="93" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="93"/>
+      <c r="F31" s="93"/>
+      <c r="G31" s="93"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="94"/>
+      <c r="K31" s="78" t="s">
+        <v>27</v>
+      </c>
+      <c r="L31" s="79"/>
+      <c r="M31" s="79"/>
+      <c r="N31" s="79"/>
+      <c r="O31" s="79"/>
+      <c r="P31" s="79"/>
+      <c r="Q31" s="79"/>
+      <c r="R31" s="79"/>
+      <c r="S31" s="79"/>
+      <c r="T31" s="79"/>
+      <c r="U31" s="79"/>
+      <c r="V31" s="79"/>
+      <c r="W31" s="79"/>
+      <c r="X31" s="79"/>
+      <c r="Y31" s="79"/>
+      <c r="Z31" s="79"/>
+      <c r="AA31" s="79"/>
+      <c r="AB31" s="79"/>
+      <c r="AC31" s="79"/>
+      <c r="AD31" s="79"/>
+      <c r="AE31" s="79"/>
+      <c r="AF31" s="79"/>
+      <c r="AG31" s="79"/>
+      <c r="AH31" s="79"/>
+      <c r="AI31" s="79"/>
+      <c r="AJ31" s="79"/>
+      <c r="AK31" s="79"/>
+      <c r="AL31" s="79"/>
+      <c r="AM31" s="79"/>
+      <c r="AN31" s="79"/>
+      <c r="AO31" s="80"/>
+      <c r="AX31" s="74"/>
+      <c r="AY31" s="74"/>
+      <c r="AZ31" s="74"/>
+      <c r="BA31" s="74"/>
+      <c r="BB31" s="74"/>
+      <c r="BC31" s="74"/>
+      <c r="BD31" s="74"/>
+      <c r="BE31" s="74"/>
     </row>
-    <row r="32" spans="2:77" s="73" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="81" t="s">
+    <row r="32" spans="2:77" s="67" customFormat="1" ht="89.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="87" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" s="88"/>
+      <c r="D32" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="E32" s="91"/>
+      <c r="F32" s="91"/>
+      <c r="G32" s="91"/>
+      <c r="H32" s="91"/>
+      <c r="I32" s="92"/>
+      <c r="J32" s="71"/>
+      <c r="K32" s="75" t="s">
+        <v>28</v>
+      </c>
+      <c r="L32" s="76"/>
+      <c r="M32" s="76"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="76"/>
+      <c r="P32" s="76"/>
+      <c r="Q32" s="76"/>
+      <c r="R32" s="76"/>
+      <c r="S32" s="76"/>
+      <c r="T32" s="76"/>
+      <c r="U32" s="76"/>
+      <c r="V32" s="76"/>
+      <c r="W32" s="76"/>
+      <c r="X32" s="76"/>
+      <c r="Y32" s="76"/>
+      <c r="Z32" s="76"/>
+      <c r="AA32" s="76"/>
+      <c r="AB32" s="76"/>
+      <c r="AC32" s="76"/>
+      <c r="AD32" s="76"/>
+      <c r="AE32" s="76"/>
+      <c r="AF32" s="76"/>
+      <c r="AG32" s="76"/>
+      <c r="AH32" s="76"/>
+      <c r="AI32" s="76"/>
+      <c r="AJ32" s="76"/>
+      <c r="AK32" s="76"/>
+      <c r="AL32" s="76"/>
+      <c r="AM32" s="76"/>
+      <c r="AN32" s="76"/>
+      <c r="AO32" s="77"/>
+      <c r="BY32" s="68"/>
+    </row>
+    <row r="33" spans="1:77" s="67" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="87" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="88"/>
+      <c r="D33" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C32" s="79"/>
-      <c r="D32" s="79" t="s">
-        <v>25</v>
-      </c>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="79"/>
-      <c r="I32" s="80"/>
-      <c r="K32" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="L32" s="92"/>
-      <c r="M32" s="92"/>
-      <c r="N32" s="92"/>
-      <c r="O32" s="92"/>
-      <c r="P32" s="92"/>
-      <c r="Q32" s="92"/>
-      <c r="R32" s="92"/>
-      <c r="S32" s="92"/>
-      <c r="T32" s="92"/>
-      <c r="U32" s="92"/>
-      <c r="V32" s="92"/>
-      <c r="W32" s="92"/>
-      <c r="X32" s="92"/>
-      <c r="Y32" s="92"/>
-      <c r="Z32" s="92"/>
-      <c r="AA32" s="92"/>
-      <c r="AB32" s="92"/>
-      <c r="AC32" s="92"/>
-      <c r="AD32" s="92"/>
-      <c r="AE32" s="92"/>
-      <c r="AF32" s="92"/>
-      <c r="AG32" s="92"/>
-      <c r="AH32" s="92"/>
-      <c r="AI32" s="92"/>
-      <c r="AJ32" s="92"/>
-      <c r="AK32" s="92"/>
-      <c r="AL32" s="92"/>
-      <c r="AM32" s="92"/>
-      <c r="AN32" s="92"/>
-      <c r="AO32" s="93"/>
-      <c r="AX32" s="74"/>
-      <c r="AY32" s="74"/>
-      <c r="AZ32" s="74"/>
-      <c r="BA32" s="74"/>
-      <c r="BB32" s="74"/>
-      <c r="BC32" s="74"/>
-      <c r="BD32" s="74"/>
-      <c r="BE32" s="74"/>
-    </row>
-    <row r="33" spans="1:77" s="67" customFormat="1" ht="64" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="75" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="76"/>
-      <c r="D33" s="77" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="77"/>
-      <c r="F33" s="77"/>
-      <c r="G33" s="77"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="78"/>
+      <c r="E33" s="89"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="90"/>
       <c r="J33" s="71"/>
-      <c r="K33" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="L33" s="95"/>
-      <c r="M33" s="95"/>
-      <c r="N33" s="95"/>
-      <c r="O33" s="95"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="95"/>
-      <c r="R33" s="95"/>
-      <c r="S33" s="95"/>
-      <c r="T33" s="95"/>
-      <c r="U33" s="95"/>
-      <c r="V33" s="95"/>
-      <c r="W33" s="95"/>
-      <c r="X33" s="95"/>
-      <c r="Y33" s="95"/>
-      <c r="Z33" s="95"/>
-      <c r="AA33" s="95"/>
-      <c r="AB33" s="95"/>
-      <c r="AC33" s="95"/>
-      <c r="AD33" s="95"/>
-      <c r="AE33" s="95"/>
-      <c r="AF33" s="95"/>
-      <c r="AG33" s="95"/>
-      <c r="AH33" s="95"/>
-      <c r="AI33" s="95"/>
-      <c r="AJ33" s="95"/>
-      <c r="AK33" s="95"/>
-      <c r="AL33" s="95"/>
-      <c r="AM33" s="95"/>
-      <c r="AN33" s="95"/>
-      <c r="AO33" s="96"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="76"/>
+      <c r="M33" s="76"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="76"/>
+      <c r="P33" s="76"/>
+      <c r="Q33" s="76"/>
+      <c r="R33" s="76"/>
+      <c r="S33" s="76"/>
+      <c r="T33" s="76"/>
+      <c r="U33" s="76"/>
+      <c r="V33" s="76"/>
+      <c r="W33" s="76"/>
+      <c r="X33" s="76"/>
+      <c r="Y33" s="76"/>
+      <c r="Z33" s="76"/>
+      <c r="AA33" s="76"/>
+      <c r="AB33" s="76"/>
+      <c r="AC33" s="76"/>
+      <c r="AD33" s="76"/>
+      <c r="AE33" s="76"/>
+      <c r="AF33" s="76"/>
+      <c r="AG33" s="76"/>
+      <c r="AH33" s="76"/>
+      <c r="AI33" s="76"/>
+      <c r="AJ33" s="76"/>
+      <c r="AK33" s="76"/>
+      <c r="AL33" s="76"/>
+      <c r="AM33" s="76"/>
+      <c r="AN33" s="76"/>
+      <c r="AO33" s="77"/>
       <c r="BY33" s="68"/>
     </row>
-    <row r="34" spans="1:77" s="67" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="C34" s="76"/>
-      <c r="D34" s="82" t="s">
-        <v>27</v>
-      </c>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="82"/>
-      <c r="H34" s="82"/>
-      <c r="I34" s="83"/>
+    <row r="34" spans="1:77" s="67" customFormat="1" ht="225.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B34" s="87" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" s="88"/>
+      <c r="D34" s="89" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="89"/>
+      <c r="F34" s="89"/>
+      <c r="G34" s="89"/>
+      <c r="H34" s="89"/>
+      <c r="I34" s="90"/>
       <c r="J34" s="71"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="95"/>
-      <c r="M34" s="95"/>
-      <c r="N34" s="95"/>
-      <c r="O34" s="95"/>
-      <c r="P34" s="95"/>
-      <c r="Q34" s="95"/>
-      <c r="R34" s="95"/>
-      <c r="S34" s="95"/>
-      <c r="T34" s="95"/>
-      <c r="U34" s="95"/>
-      <c r="V34" s="95"/>
-      <c r="W34" s="95"/>
-      <c r="X34" s="95"/>
-      <c r="Y34" s="95"/>
-      <c r="Z34" s="95"/>
-      <c r="AA34" s="95"/>
-      <c r="AB34" s="95"/>
-      <c r="AC34" s="95"/>
-      <c r="AD34" s="95"/>
-      <c r="AE34" s="95"/>
-      <c r="AF34" s="95"/>
-      <c r="AG34" s="95"/>
-      <c r="AH34" s="95"/>
-      <c r="AI34" s="95"/>
-      <c r="AJ34" s="95"/>
-      <c r="AK34" s="95"/>
-      <c r="AL34" s="95"/>
-      <c r="AM34" s="95"/>
-      <c r="AN34" s="95"/>
-      <c r="AO34" s="96"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="71"/>
+      <c r="M34" s="71"/>
+      <c r="N34" s="71"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="71"/>
+      <c r="T34" s="71"/>
+      <c r="U34" s="71"/>
+      <c r="V34" s="71"/>
+      <c r="W34" s="71"/>
+      <c r="X34" s="71"/>
+      <c r="Y34" s="71"/>
+      <c r="Z34" s="71"/>
+      <c r="AA34" s="71"/>
+      <c r="AB34" s="71"/>
+      <c r="AC34" s="71"/>
       <c r="BY34" s="68"/>
     </row>
-    <row r="35" spans="1:77" s="67" customFormat="1" ht="225.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="75" t="s">
-        <v>30</v>
-      </c>
-      <c r="C35" s="76"/>
-      <c r="D35" s="82" t="s">
-        <v>29</v>
-      </c>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="82"/>
-      <c r="H35" s="82"/>
-      <c r="I35" s="83"/>
+    <row r="35" spans="1:77" s="67" customFormat="1" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C35" s="88"/>
+      <c r="D35" s="91" t="s">
+        <v>26</v>
+      </c>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="92"/>
       <c r="J35" s="71"/>
       <c r="K35" s="71"/>
       <c r="L35" s="71"/>
@@ -5285,19 +5176,16 @@
       <c r="AC35" s="71"/>
       <c r="BY35" s="68"/>
     </row>
-    <row r="36" spans="1:77" s="67" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="75" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="76"/>
-      <c r="I36" s="84"/>
+    <row r="36" spans="1:77" s="67" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="71"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
       <c r="J36" s="71"/>
       <c r="K36" s="71"/>
       <c r="L36" s="71"/>
@@ -5309,30 +5197,18 @@
       <c r="R36" s="71"/>
       <c r="S36" s="71"/>
       <c r="T36" s="71"/>
-      <c r="U36" s="71"/>
-      <c r="V36" s="71"/>
-      <c r="W36" s="71"/>
-      <c r="X36" s="71"/>
-      <c r="Y36" s="71"/>
-      <c r="Z36" s="71"/>
-      <c r="AA36" s="71"/>
-      <c r="AB36" s="71"/>
-      <c r="AC36" s="71"/>
-      <c r="BY36" s="68"/>
+      <c r="BP36" s="68"/>
     </row>
-    <row r="37" spans="1:77" s="67" customFormat="1" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B37" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="C37" s="76"/>
-      <c r="D37" s="77" t="s">
-        <v>37</v>
-      </c>
-      <c r="E37" s="77"/>
-      <c r="F37" s="77"/>
-      <c r="G37" s="77"/>
-      <c r="H37" s="77"/>
-      <c r="I37" s="78"/>
+    <row r="37" spans="1:77" s="67" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="71"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
       <c r="J37" s="71"/>
       <c r="K37" s="71"/>
       <c r="L37" s="71"/>
@@ -5344,16 +5220,7 @@
       <c r="R37" s="71"/>
       <c r="S37" s="71"/>
       <c r="T37" s="71"/>
-      <c r="U37" s="71"/>
-      <c r="V37" s="71"/>
-      <c r="W37" s="71"/>
-      <c r="X37" s="71"/>
-      <c r="Y37" s="71"/>
-      <c r="Z37" s="71"/>
-      <c r="AA37" s="71"/>
-      <c r="AB37" s="71"/>
-      <c r="AC37" s="71"/>
-      <c r="BY37" s="68"/>
+      <c r="BP37" s="68"/>
     </row>
     <row r="38" spans="1:77" s="67" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A38" s="71"/>
@@ -5447,11 +5314,10 @@
       <c r="T41" s="71"/>
       <c r="BP41" s="68"/>
     </row>
-    <row r="42" spans="1:77" s="67" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="71"/>
-      <c r="C42" s="71"/>
-      <c r="D42" s="71"/>
+    <row r="42" spans="1:77" s="67" customFormat="1" ht="17" x14ac:dyDescent="0.35">
+      <c r="B42" s="69"/>
+      <c r="C42" s="70"/>
+      <c r="D42" s="70"/>
       <c r="E42" s="71"/>
       <c r="F42" s="71"/>
       <c r="G42" s="71"/>
@@ -5468,13 +5334,21 @@
       <c r="R42" s="71"/>
       <c r="S42" s="71"/>
       <c r="T42" s="71"/>
-      <c r="BP42" s="68"/>
+      <c r="U42" s="71"/>
+      <c r="V42" s="71"/>
+      <c r="W42" s="71"/>
+      <c r="X42" s="71"/>
+      <c r="Y42" s="71"/>
+      <c r="Z42" s="71"/>
+      <c r="AA42" s="71"/>
+      <c r="AB42" s="71"/>
+      <c r="AC42" s="71"/>
+      <c r="BY42" s="68"/>
     </row>
-    <row r="43" spans="1:77" s="67" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="71"/>
-      <c r="C43" s="71"/>
-      <c r="D43" s="71"/>
+    <row r="43" spans="1:77" s="67" customFormat="1" ht="17" x14ac:dyDescent="0.35">
+      <c r="B43" s="69"/>
+      <c r="C43" s="70"/>
+      <c r="D43" s="70"/>
       <c r="E43" s="71"/>
       <c r="F43" s="71"/>
       <c r="G43" s="71"/>
@@ -5491,7 +5365,16 @@
       <c r="R43" s="71"/>
       <c r="S43" s="71"/>
       <c r="T43" s="71"/>
-      <c r="BP43" s="68"/>
+      <c r="U43" s="71"/>
+      <c r="V43" s="71"/>
+      <c r="W43" s="71"/>
+      <c r="X43" s="71"/>
+      <c r="Y43" s="71"/>
+      <c r="Z43" s="71"/>
+      <c r="AA43" s="71"/>
+      <c r="AB43" s="71"/>
+      <c r="AC43" s="71"/>
+      <c r="BY43" s="68"/>
     </row>
     <row r="44" spans="1:77" s="67" customFormat="1" ht="17" x14ac:dyDescent="0.35">
       <c r="B44" s="69"/>
@@ -5586,7 +5469,7 @@
       <c r="AC46" s="71"/>
       <c r="BY46" s="68"/>
     </row>
-    <row r="47" spans="1:77" s="67" customFormat="1" ht="17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:77" s="67" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B47" s="69"/>
       <c r="C47" s="70"/>
       <c r="D47" s="70"/>
@@ -5617,74 +5500,19 @@
       <c r="AC47" s="71"/>
       <c r="BY47" s="68"/>
     </row>
-    <row r="48" spans="1:77" s="67" customFormat="1" ht="17" x14ac:dyDescent="0.35">
-      <c r="B48" s="69"/>
-      <c r="C48" s="70"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="71"/>
-      <c r="H48" s="71"/>
-      <c r="I48" s="71"/>
-      <c r="J48" s="71"/>
-      <c r="K48" s="71"/>
-      <c r="L48" s="71"/>
-      <c r="M48" s="71"/>
-      <c r="N48" s="71"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="71"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="71"/>
-      <c r="T48" s="71"/>
-      <c r="U48" s="71"/>
-      <c r="V48" s="71"/>
-      <c r="W48" s="71"/>
-      <c r="X48" s="71"/>
-      <c r="Y48" s="71"/>
-      <c r="Z48" s="71"/>
-      <c r="AA48" s="71"/>
-      <c r="AB48" s="71"/>
-      <c r="AC48" s="71"/>
-      <c r="BY48" s="68"/>
-    </row>
-    <row r="49" spans="2:77" s="67" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="69"/>
-      <c r="C49" s="70"/>
-      <c r="D49" s="70"/>
-      <c r="E49" s="71"/>
-      <c r="F49" s="71"/>
-      <c r="G49" s="71"/>
-      <c r="H49" s="71"/>
-      <c r="I49" s="71"/>
-      <c r="J49" s="71"/>
-      <c r="K49" s="71"/>
-      <c r="L49" s="71"/>
-      <c r="M49" s="71"/>
-      <c r="N49" s="71"/>
-      <c r="O49" s="71"/>
-      <c r="P49" s="71"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="71"/>
-      <c r="T49" s="71"/>
-      <c r="U49" s="71"/>
-      <c r="V49" s="71"/>
-      <c r="W49" s="71"/>
-      <c r="X49" s="71"/>
-      <c r="Y49" s="71"/>
-      <c r="Z49" s="71"/>
-      <c r="AA49" s="71"/>
-      <c r="AB49" s="71"/>
-      <c r="AC49" s="71"/>
-      <c r="BY49" s="68"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <mergeCells count="25">
+  <mergeCells count="23">
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="K32:AO32"/>
     <mergeCell ref="K33:AO33"/>
-    <mergeCell ref="K34:AO34"/>
-    <mergeCell ref="K32:AO32"/>
+    <mergeCell ref="K31:AO31"/>
     <mergeCell ref="C3:I4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="K5:O7"/>
@@ -5695,26 +5523,17 @@
     <mergeCell ref="U5:Y7"/>
     <mergeCell ref="Z5:AD7"/>
     <mergeCell ref="AE5:AI7"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:I37"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="D36:I36"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:I33"/>
+    <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:I32"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:I34"/>
+    <mergeCell ref="D31:I31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K8:AN8">
-    <cfRule type="expression" dxfId="25" priority="156">
+    <cfRule type="expression" dxfId="14" priority="156">
       <formula>$K$8=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I12 I20:I30 I15:I17">
+  <conditionalFormatting sqref="I10:I12 I19:I29 I14:I16">
     <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5728,26 +5547,26 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12 H20:H29 H15:H17">
-    <cfRule type="cellIs" dxfId="24" priority="33" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H12 H19:H28 H14:H16">
+    <cfRule type="cellIs" dxfId="13" priority="33" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="23" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="34" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="35" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:AN12 K20:AN30 K15:AN17">
-    <cfRule type="expression" dxfId="21" priority="157">
+  <conditionalFormatting sqref="K11:AN29">
+    <cfRule type="expression" dxfId="10" priority="157">
       <formula>AND($I11&gt;5%, $E11&lt;=K$8,ROUNDDOWN(NETWORKDAYS($E11,$F11)*$I11,0)+$E11+1&gt;=K$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="158">
+    <cfRule type="expression" dxfId="9" priority="158">
       <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$8,$F11&gt;=K$8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
+  <conditionalFormatting sqref="I17">
     <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5761,26 +5580,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="19" priority="19" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="8" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="20" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K18:AN18">
-    <cfRule type="expression" dxfId="16" priority="23">
-      <formula>AND($I18&gt;5%, $E18&lt;=K$8,ROUNDDOWN(NETWORKDAYS($E18,$F18)*$I18,0)+$E18+1&gt;=K$8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="15" priority="24">
-      <formula>AND(NOT(ISBLANK($E18)),$E18&lt;=K$8,$F18&gt;=K$8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I19">
+  <conditionalFormatting sqref="I18">
     <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5794,26 +5605,18 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="cellIs" dxfId="14" priority="13" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="5" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="14" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="15" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K19:AN19">
-    <cfRule type="expression" dxfId="11" priority="17">
-      <formula>AND($I19&gt;5%, $E19&lt;=K$8,ROUNDDOWN(NETWORKDAYS($E19,$F19)*$I19,0)+$E19+1&gt;=K$8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="10" priority="18">
-      <formula>AND(NOT(ISBLANK($E19)),$E19&lt;=K$8,$F19&gt;=K$8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I14">
+  <conditionalFormatting sqref="I13">
     <cfRule type="dataBar" priority="10">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5827,63 +5630,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H14">
-    <cfRule type="cellIs" dxfId="9" priority="7" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H13">
+    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K14:AN14">
-    <cfRule type="expression" dxfId="6" priority="11">
-      <formula>AND($I14&gt;5%, $E14&lt;=K$8,ROUNDDOWN(NETWORKDAYS($E14,$F14)*$I14,0)+$E14+1&gt;=K$8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="5" priority="12">
-      <formula>AND(NOT(ISBLANK($E14)),$E14&lt;=K$8,$F14&gt;=K$8)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="9" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{E2CED8FB-8311-42E5-A454-2EB91976D64F}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"Green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
-      <formula>"Red"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K13:AN13">
-    <cfRule type="expression" dxfId="1" priority="5">
-      <formula>AND($I13&gt;5%, $E13&lt;=K$8,ROUNDDOWN(NETWORKDAYS($E13,$F13)*$I13,0)+$E13+1&gt;=K$8)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="0" priority="6">
-      <formula>AND(NOT(ISBLANK($E13)),$E13&lt;=K$8,$F13&gt;=K$8)</formula>
-    </cfRule>
-  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D18:D20 D26:D28 D22:D24 D12:D15" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D19 D25:D27 D21:D23 D12:D14" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Low, Medium,High"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H18:H20 H26:H28 H22:H24 H12:H15" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H19 H25:H27 H21:H23 H12:H14" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Red, Yellow,Green"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5907,7 +5669,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I10:I12 I20:I30 I15:I17</xm:sqref>
+          <xm:sqref>I10:I12 I19:I29 I14:I16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C62A6621-A3CE-40E1-A5FF-9C7C62959795}">
@@ -5922,7 +5684,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I18</xm:sqref>
+          <xm:sqref>I17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{953EB8B6-C791-4356-ABB1-312C85AAA81D}">
@@ -5937,25 +5699,10 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I19</xm:sqref>
+          <xm:sqref>I18</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{75C672E8-9B7E-4377-9D47-962014AA44FB}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I14</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{E2CED8FB-8311-42E5-A454-2EB91976D64F}">
             <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
               <x14:cfvo type="num">
                 <xm:f>0</xm:f>

--- a/Excel-Sprint-Project-Tracker.xlsx
+++ b/Excel-Sprint-Project-Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8029A2DF-DAB5-45AD-A9D6-0A0CAF12CC3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDE55EC-A816-438B-9DF4-F80E4C72ED25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">'Excel Sprint Project Tracker'!$C1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Excel Sprint Project Tracker'!$C$3:$AN$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Excel Sprint Project Tracker'!$C$3:$AN$26</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Excel Sprint Project Tracker'!$6:$8</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
   <si>
     <t>Project Summary</t>
   </si>
@@ -173,12 +173,19 @@
   <si>
     <t>US0003 (3 &amp; 4)</t>
   </si>
+  <si>
+    <t>US0005</t>
+  </si>
+  <si>
+    <t>the screenshots of the output, Document Core concepts used in the project in project details</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="d"/>
     <numFmt numFmtId="166" formatCode="mmm\-d"/>
@@ -477,13 +484,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="Century Gothic"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="Century Gothic"/>
@@ -594,6 +594,10 @@
       <color theme="1"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="31">
@@ -1098,7 +1102,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1147,12 +1151,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="21" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="168" fontId="54" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="168" fontId="53" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="63" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
@@ -1184,15 +1189,6 @@
     <xf numFmtId="14" fontId="35" fillId="21" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="22" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="28" fillId="22" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1231,9 +1227,6 @@
     <xf numFmtId="1" fontId="38" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="165" fontId="40" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1309,10 +1302,7 @@
     <xf numFmtId="9" fontId="43" fillId="23" borderId="0" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="46" fillId="20" borderId="12" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="47" fillId="21" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="9" fontId="46" fillId="21" borderId="11" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" xfId="34" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
@@ -1321,7 +1311,7 @@
     <xf numFmtId="0" fontId="24" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="48" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="47" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="26" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1331,8 +1321,11 @@
     <xf numFmtId="0" fontId="43" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="48" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1340,41 +1333,62 @@
     <xf numFmtId="0" fontId="52" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="53" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="54" fillId="23" borderId="0" xfId="45" applyFont="1" applyFill="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="55" fillId="23" borderId="0" xfId="45" applyFont="1" applyFill="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="51" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="58" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="57" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="27" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="27" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="63" fillId="30" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="30" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="30" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="61" fillId="30" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="30" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="61" fillId="30" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="29" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="58" fillId="29" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="29" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="56" fillId="29" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="57" fillId="29" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="56" fillId="29" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="50" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="49" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
@@ -1394,35 +1408,17 @@
     <xf numFmtId="0" fontId="45" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="58" fillId="27" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="59" fillId="28" borderId="22" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="60" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="41" fontId="59" fillId="28" borderId="23" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="27" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="48">
     <cellStyle name="20% - Accent1" xfId="1" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="2" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="3" builtinId="38" customBuiltin="1"/>
@@ -1451,6 +1447,7 @@
     <cellStyle name="Bad" xfId="25" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Calculation" xfId="26" builtinId="22" customBuiltin="1"/>
     <cellStyle name="Check Cell" xfId="27" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Comma [0]" xfId="47" builtinId="6"/>
     <cellStyle name="Currency" xfId="43" builtinId="4"/>
     <cellStyle name="Explanatory Text" xfId="28" builtinId="53" customBuiltin="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" customBuiltin="1"/>
@@ -1471,7 +1468,42 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="25">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1574,6 +1606,41 @@
       <font>
         <color theme="0"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
@@ -3339,10 +3406,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BY47"/>
+  <dimension ref="A1:BY44"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3410,26 +3477,26 @@
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="84" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="81"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="81"/>
-      <c r="H3" s="81"/>
-      <c r="I3" s="81"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="9"/>
-      <c r="K3" s="61"/>
-      <c r="L3" s="62" t="s">
+      <c r="K3" s="56"/>
+      <c r="L3" s="57" t="s">
         <v>21</v>
       </c>
       <c r="M3" s="10"/>
       <c r="N3" s="10"/>
-      <c r="O3" s="47"/>
+      <c r="O3" s="43"/>
       <c r="P3" s="10"/>
-      <c r="Q3" s="63"/>
-      <c r="R3" s="62" t="s">
+      <c r="Q3" s="58"/>
+      <c r="R3" s="57" t="s">
         <v>13</v>
       </c>
       <c r="S3" s="10"/>
@@ -3446,31 +3513,31 @@
       <c r="AD3" s="9"/>
       <c r="AE3" s="9"/>
       <c r="AF3" s="9"/>
-      <c r="AG3" s="60"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="55"/>
+      <c r="AJ3" s="55"/>
+      <c r="AK3" s="55"/>
+      <c r="AL3" s="55"/>
+      <c r="AM3" s="55"/>
+      <c r="AN3" s="55"/>
       <c r="AO3" s="5"/>
     </row>
     <row r="4" spans="2:41" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
+      <c r="C4" s="84"/>
+      <c r="D4" s="84"/>
+      <c r="E4" s="84"/>
+      <c r="F4" s="84"/>
+      <c r="G4" s="84"/>
+      <c r="H4" s="84"/>
+      <c r="I4" s="84"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="46"/>
-      <c r="L4" s="46"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-      <c r="O4" s="46"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
@@ -3500,297 +3567,297 @@
     </row>
     <row r="5" spans="2:41" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="21"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="83">
+      <c r="C5" s="17"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="86">
         <f>CHOOSE(WEEKDAY(D6+(H6-1)*7),5,4,3,2,1,0,6)+D6+(H6-1)*7</f>
         <v>44484</v>
       </c>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83">
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86">
         <f>K5+7</f>
         <v>44491</v>
       </c>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83">
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86">
         <f>P5+7</f>
         <v>44498</v>
       </c>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83">
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86">
         <f>U5+7</f>
         <v>44505</v>
       </c>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83">
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86">
         <f>Z5+7</f>
         <v>44512</v>
       </c>
-      <c r="AF5" s="83"/>
-      <c r="AG5" s="83"/>
-      <c r="AH5" s="83"/>
-      <c r="AI5" s="83"/>
-      <c r="AJ5" s="83">
+      <c r="AF5" s="86"/>
+      <c r="AG5" s="86"/>
+      <c r="AH5" s="86"/>
+      <c r="AI5" s="86"/>
+      <c r="AJ5" s="86">
         <f>AE5+7</f>
         <v>44519</v>
       </c>
-      <c r="AK5" s="83"/>
-      <c r="AL5" s="83"/>
-      <c r="AM5" s="83"/>
-      <c r="AN5" s="83"/>
+      <c r="AK5" s="86"/>
+      <c r="AL5" s="86"/>
+      <c r="AM5" s="86"/>
+      <c r="AN5" s="86"/>
       <c r="AO5" s="5"/>
     </row>
     <row r="6" spans="2:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="82">
+      <c r="D6" s="85">
         <v>44479</v>
       </c>
-      <c r="E6" s="82"/>
-      <c r="F6" s="85" t="s">
+      <c r="E6" s="85"/>
+      <c r="F6" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="85"/>
-      <c r="H6" s="51">
+      <c r="G6" s="88"/>
+      <c r="H6" s="47">
         <v>1</v>
       </c>
-      <c r="I6" s="64"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="84"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="83"/>
-      <c r="AH6" s="83"/>
-      <c r="AI6" s="83"/>
-      <c r="AJ6" s="83"/>
-      <c r="AK6" s="83"/>
-      <c r="AL6" s="83"/>
-      <c r="AM6" s="83"/>
-      <c r="AN6" s="83"/>
+      <c r="I6" s="59"/>
+      <c r="J6" s="34"/>
+      <c r="K6" s="87"/>
+      <c r="L6" s="86"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="86"/>
+      <c r="P6" s="86"/>
+      <c r="Q6" s="86"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="86"/>
+      <c r="T6" s="86"/>
+      <c r="U6" s="86"/>
+      <c r="V6" s="86"/>
+      <c r="W6" s="86"/>
+      <c r="X6" s="86"/>
+      <c r="Y6" s="86"/>
+      <c r="Z6" s="86"/>
+      <c r="AA6" s="86"/>
+      <c r="AB6" s="86"/>
+      <c r="AC6" s="86"/>
+      <c r="AD6" s="86"/>
+      <c r="AE6" s="86"/>
+      <c r="AF6" s="86"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="86"/>
+      <c r="AI6" s="86"/>
+      <c r="AJ6" s="86"/>
+      <c r="AK6" s="86"/>
+      <c r="AL6" s="86"/>
+      <c r="AM6" s="86"/>
+      <c r="AN6" s="86"/>
       <c r="AO6" s="5"/>
     </row>
     <row r="7" spans="2:41" ht="6.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="26"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="83"/>
-      <c r="M7" s="83"/>
-      <c r="N7" s="83"/>
-      <c r="O7" s="83"/>
-      <c r="P7" s="83"/>
-      <c r="Q7" s="83"/>
-      <c r="R7" s="83"/>
-      <c r="S7" s="83"/>
-      <c r="T7" s="83"/>
-      <c r="U7" s="83"/>
-      <c r="V7" s="83"/>
-      <c r="W7" s="83"/>
-      <c r="X7" s="83"/>
-      <c r="Y7" s="83"/>
-      <c r="Z7" s="83"/>
-      <c r="AA7" s="83"/>
-      <c r="AB7" s="83"/>
-      <c r="AC7" s="83"/>
-      <c r="AD7" s="83"/>
-      <c r="AE7" s="83"/>
-      <c r="AF7" s="83"/>
-      <c r="AG7" s="83"/>
-      <c r="AH7" s="83"/>
-      <c r="AI7" s="83"/>
-      <c r="AJ7" s="83"/>
-      <c r="AK7" s="83"/>
-      <c r="AL7" s="83"/>
-      <c r="AM7" s="83"/>
-      <c r="AN7" s="83"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="86"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="86"/>
+      <c r="O7" s="86"/>
+      <c r="P7" s="86"/>
+      <c r="Q7" s="86"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="86"/>
+      <c r="T7" s="86"/>
+      <c r="U7" s="86"/>
+      <c r="V7" s="86"/>
+      <c r="W7" s="86"/>
+      <c r="X7" s="86"/>
+      <c r="Y7" s="86"/>
+      <c r="Z7" s="86"/>
+      <c r="AA7" s="86"/>
+      <c r="AB7" s="86"/>
+      <c r="AC7" s="86"/>
+      <c r="AD7" s="86"/>
+      <c r="AE7" s="86"/>
+      <c r="AF7" s="86"/>
+      <c r="AG7" s="86"/>
+      <c r="AH7" s="86"/>
+      <c r="AI7" s="86"/>
+      <c r="AJ7" s="86"/>
+      <c r="AK7" s="86"/>
+      <c r="AL7" s="86"/>
+      <c r="AM7" s="86"/>
+      <c r="AN7" s="86"/>
       <c r="AO7" s="5"/>
     </row>
     <row r="8" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="48" t="s">
+      <c r="C8" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="49" t="s">
+      <c r="D8" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="50" t="s">
+      <c r="F8" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="65" t="s">
+      <c r="G8" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="50" t="s">
+      <c r="H8" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="I8" s="44" t="s">
+      <c r="I8" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="J8" s="29"/>
-      <c r="K8" s="37">
+      <c r="J8" s="26"/>
+      <c r="K8" s="33">
         <f t="shared" ref="K8:N8" si="0">L8-1</f>
         <v>44480</v>
       </c>
-      <c r="L8" s="35">
+      <c r="L8" s="31">
         <f t="shared" si="0"/>
         <v>44481</v>
       </c>
-      <c r="M8" s="35">
+      <c r="M8" s="31">
         <f t="shared" si="0"/>
         <v>44482</v>
       </c>
-      <c r="N8" s="35">
+      <c r="N8" s="31">
         <f t="shared" si="0"/>
         <v>44483</v>
       </c>
-      <c r="O8" s="35">
+      <c r="O8" s="31">
         <f>K5</f>
         <v>44484</v>
       </c>
-      <c r="P8" s="35">
+      <c r="P8" s="31">
         <f>WORKDAY(O8,1)</f>
         <v>44487</v>
       </c>
-      <c r="Q8" s="35">
+      <c r="Q8" s="31">
         <f t="shared" ref="Q8:AN8" si="1">WORKDAY(P8,1)</f>
         <v>44488</v>
       </c>
-      <c r="R8" s="35">
+      <c r="R8" s="31">
         <f t="shared" si="1"/>
         <v>44489</v>
       </c>
-      <c r="S8" s="35">
+      <c r="S8" s="31">
         <f t="shared" si="1"/>
         <v>44490</v>
       </c>
-      <c r="T8" s="35">
+      <c r="T8" s="31">
         <f t="shared" si="1"/>
         <v>44491</v>
       </c>
-      <c r="U8" s="35">
+      <c r="U8" s="31">
         <f t="shared" si="1"/>
         <v>44494</v>
       </c>
-      <c r="V8" s="35">
+      <c r="V8" s="31">
         <f t="shared" si="1"/>
         <v>44495</v>
       </c>
-      <c r="W8" s="35">
+      <c r="W8" s="31">
         <f t="shared" si="1"/>
         <v>44496</v>
       </c>
-      <c r="X8" s="35">
+      <c r="X8" s="31">
         <f t="shared" si="1"/>
         <v>44497</v>
       </c>
-      <c r="Y8" s="35">
+      <c r="Y8" s="31">
         <f t="shared" si="1"/>
         <v>44498</v>
       </c>
-      <c r="Z8" s="35">
+      <c r="Z8" s="31">
         <f t="shared" si="1"/>
         <v>44501</v>
       </c>
-      <c r="AA8" s="35">
+      <c r="AA8" s="31">
         <f t="shared" si="1"/>
         <v>44502</v>
       </c>
-      <c r="AB8" s="35">
+      <c r="AB8" s="31">
         <f t="shared" si="1"/>
         <v>44503</v>
       </c>
-      <c r="AC8" s="35">
+      <c r="AC8" s="31">
         <f t="shared" si="1"/>
         <v>44504</v>
       </c>
-      <c r="AD8" s="35">
+      <c r="AD8" s="31">
         <f t="shared" si="1"/>
         <v>44505</v>
       </c>
-      <c r="AE8" s="35">
+      <c r="AE8" s="31">
         <f t="shared" si="1"/>
         <v>44508</v>
       </c>
-      <c r="AF8" s="35">
+      <c r="AF8" s="31">
         <f t="shared" si="1"/>
         <v>44509</v>
       </c>
-      <c r="AG8" s="35">
+      <c r="AG8" s="31">
         <f t="shared" si="1"/>
         <v>44510</v>
       </c>
-      <c r="AH8" s="35">
+      <c r="AH8" s="31">
         <f t="shared" si="1"/>
         <v>44511</v>
       </c>
-      <c r="AI8" s="35">
+      <c r="AI8" s="31">
         <f t="shared" si="1"/>
         <v>44512</v>
       </c>
-      <c r="AJ8" s="35">
+      <c r="AJ8" s="31">
         <f t="shared" si="1"/>
         <v>44515</v>
       </c>
-      <c r="AK8" s="35">
+      <c r="AK8" s="31">
         <f t="shared" si="1"/>
         <v>44516</v>
       </c>
-      <c r="AL8" s="35">
+      <c r="AL8" s="31">
         <f t="shared" si="1"/>
         <v>44517</v>
       </c>
-      <c r="AM8" s="35">
+      <c r="AM8" s="31">
         <f t="shared" si="1"/>
         <v>44518</v>
       </c>
-      <c r="AN8" s="35">
+      <c r="AN8" s="31">
         <f t="shared" si="1"/>
         <v>44519</v>
       </c>
@@ -3798,131 +3865,131 @@
     </row>
     <row r="9" spans="2:41" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="86"/>
-      <c r="E9" s="86"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
-      <c r="I9" s="86"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="33" t="str">
+      <c r="C9" s="89"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="89"/>
+      <c r="H9" s="89"/>
+      <c r="I9" s="89"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="29" t="str">
         <f>CHOOSE(WEEKDAY(K8,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="L9" s="34" t="str">
+      <c r="L9" s="30" t="str">
         <f t="shared" ref="L9:AD9" si="2">CHOOSE(WEEKDAY(L8,1),"S","M","T","W","T","F","S")</f>
         <v>T</v>
       </c>
-      <c r="M9" s="34" t="str">
+      <c r="M9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="N9" s="34" t="str">
+      <c r="N9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="O9" s="34" t="str">
+      <c r="O9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="P9" s="34" t="str">
+      <c r="P9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="Q9" s="34" t="str">
+      <c r="Q9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="R9" s="34" t="str">
+      <c r="R9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="S9" s="34" t="str">
+      <c r="S9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="T9" s="34" t="str">
+      <c r="T9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="U9" s="34" t="str">
+      <c r="U9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="V9" s="34" t="str">
+      <c r="V9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="W9" s="34" t="str">
+      <c r="W9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="X9" s="34" t="str">
+      <c r="X9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="Y9" s="34" t="str">
+      <c r="Y9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="Z9" s="34" t="str">
+      <c r="Z9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>M</v>
       </c>
-      <c r="AA9" s="34" t="str">
+      <c r="AA9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AB9" s="34" t="str">
+      <c r="AB9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>W</v>
       </c>
-      <c r="AC9" s="34" t="str">
+      <c r="AC9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>T</v>
       </c>
-      <c r="AD9" s="34" t="str">
+      <c r="AD9" s="30" t="str">
         <f t="shared" si="2"/>
         <v>F</v>
       </c>
-      <c r="AE9" s="34" t="str">
+      <c r="AE9" s="30" t="str">
         <f t="shared" ref="AE9" si="3">CHOOSE(WEEKDAY(AE8,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="AF9" s="34" t="str">
+      <c r="AF9" s="30" t="str">
         <f t="shared" ref="AF9" si="4">CHOOSE(WEEKDAY(AF8,1),"S","M","T","W","T","F","S")</f>
         <v>T</v>
       </c>
-      <c r="AG9" s="34" t="str">
+      <c r="AG9" s="30" t="str">
         <f t="shared" ref="AG9" si="5">CHOOSE(WEEKDAY(AG8,1),"S","M","T","W","T","F","S")</f>
         <v>W</v>
       </c>
-      <c r="AH9" s="34" t="str">
+      <c r="AH9" s="30" t="str">
         <f t="shared" ref="AH9" si="6">CHOOSE(WEEKDAY(AH8,1),"S","M","T","W","T","F","S")</f>
         <v>T</v>
       </c>
-      <c r="AI9" s="34" t="str">
+      <c r="AI9" s="30" t="str">
         <f t="shared" ref="AI9" si="7">CHOOSE(WEEKDAY(AI8,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
-      <c r="AJ9" s="34" t="str">
+      <c r="AJ9" s="30" t="str">
         <f t="shared" ref="AJ9" si="8">CHOOSE(WEEKDAY(AJ8,1),"S","M","T","W","T","F","S")</f>
         <v>M</v>
       </c>
-      <c r="AK9" s="34" t="str">
+      <c r="AK9" s="30" t="str">
         <f t="shared" ref="AK9" si="9">CHOOSE(WEEKDAY(AK8,1),"S","M","T","W","T","F","S")</f>
         <v>T</v>
       </c>
-      <c r="AL9" s="34" t="str">
+      <c r="AL9" s="30" t="str">
         <f t="shared" ref="AL9" si="10">CHOOSE(WEEKDAY(AL8,1),"S","M","T","W","T","F","S")</f>
         <v>W</v>
       </c>
-      <c r="AM9" s="34" t="str">
+      <c r="AM9" s="30" t="str">
         <f t="shared" ref="AM9" si="11">CHOOSE(WEEKDAY(AM8,1),"S","M","T","W","T","F","S")</f>
         <v>T</v>
       </c>
-      <c r="AN9" s="34" t="str">
+      <c r="AN9" s="30" t="str">
         <f t="shared" ref="AN9" si="12">CHOOSE(WEEKDAY(AN8,1),"S","M","T","W","T","F","S")</f>
         <v>F</v>
       </c>
@@ -3930,111 +3997,109 @@
     </row>
     <row r="10" spans="2:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="45">
-        <f>IF(MIN(E11:E28)&gt;0,MIN(E11:E28),"")</f>
-        <v>43344</v>
-      </c>
-      <c r="F10" s="45">
-        <f>IF(MAX(F11:F28)&gt;0,MAX(F11:F28),"")</f>
-        <v>44491</v>
-      </c>
-      <c r="G10" s="56" t="str">
+      <c r="D10" s="40"/>
+      <c r="E10" s="41">
+        <v>44481</v>
+      </c>
+      <c r="F10" s="41">
+        <f>IF(MAX(F11:F26)&gt;0,MAX(F11:F26),"")</f>
+        <v>44492</v>
+      </c>
+      <c r="G10" s="52" t="str">
         <f>IF(OR(E10="",F10=""),"",NETWORKDAYS(E10,F10)&amp; " day(s)")</f>
-        <v>820 day(s)</v>
-      </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="57">
-        <f>AVERAGE(I12:I27)</f>
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="J10" s="29"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="41"/>
-      <c r="N10" s="41"/>
-      <c r="O10" s="41"/>
-      <c r="P10" s="41"/>
-      <c r="Q10" s="41"/>
-      <c r="R10" s="41"/>
-      <c r="S10" s="41"/>
-      <c r="T10" s="41"/>
-      <c r="U10" s="41"/>
-      <c r="V10" s="41"/>
-      <c r="W10" s="41"/>
-      <c r="X10" s="41"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-      <c r="AB10" s="41"/>
-      <c r="AC10" s="41"/>
-      <c r="AD10" s="41"/>
-      <c r="AE10" s="41"/>
-      <c r="AF10" s="41"/>
-      <c r="AG10" s="41"/>
-      <c r="AH10" s="41"/>
-      <c r="AI10" s="41"/>
-      <c r="AJ10" s="41"/>
-      <c r="AK10" s="41"/>
-      <c r="AL10" s="41"/>
-      <c r="AM10" s="41"/>
-      <c r="AN10" s="41"/>
+        <v>9 day(s)</v>
+      </c>
+      <c r="H10" s="48"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="37"/>
+      <c r="M10" s="37"/>
+      <c r="N10" s="37"/>
+      <c r="O10" s="37"/>
+      <c r="P10" s="37"/>
+      <c r="Q10" s="37"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="37"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="37"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="37"/>
+      <c r="X10" s="37"/>
+      <c r="Y10" s="37"/>
+      <c r="Z10" s="37"/>
+      <c r="AA10" s="37"/>
+      <c r="AB10" s="37"/>
+      <c r="AC10" s="37"/>
+      <c r="AD10" s="37"/>
+      <c r="AE10" s="37"/>
+      <c r="AF10" s="37"/>
+      <c r="AG10" s="37"/>
+      <c r="AH10" s="37"/>
+      <c r="AI10" s="37"/>
+      <c r="AJ10" s="37"/>
+      <c r="AK10" s="37"/>
+      <c r="AL10" s="37"/>
+      <c r="AM10" s="37"/>
+      <c r="AN10" s="37"/>
       <c r="AO10" s="5"/>
     </row>
     <row r="11" spans="2:41" ht="18" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="36"/>
-      <c r="E11" s="39">
-        <f>IF(MIN(E12:E15)&gt;0,MIN(E12:E15),"")</f>
+      <c r="D11" s="32"/>
+      <c r="E11" s="35">
+        <f>IF(MIN(E12:E14)&gt;0,MIN(E12:E14),"")</f>
         <v>44481</v>
       </c>
-      <c r="F11" s="39">
-        <f>IF(MAX(F12:F15)&gt;0,MAX(F12:F15),"")</f>
+      <c r="F11" s="35">
+        <f>IF(MAX(F12:F14)&gt;0,MAX(F12:F14),"")</f>
         <v>44484</v>
       </c>
-      <c r="G11" s="53" t="str">
+      <c r="G11" s="49" t="str">
         <f>IF(OR(E11="",F11=""),"",NETWORKDAYS(E11,F11)&amp; " day(s)")</f>
         <v>4 day(s)</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="40"/>
-      <c r="L11" s="40"/>
-      <c r="M11" s="40"/>
-      <c r="N11" s="40"/>
-      <c r="O11" s="40"/>
-      <c r="P11" s="40"/>
-      <c r="Q11" s="40"/>
-      <c r="R11" s="40"/>
-      <c r="S11" s="40"/>
-      <c r="T11" s="40"/>
-      <c r="U11" s="40"/>
-      <c r="V11" s="40"/>
-      <c r="W11" s="40"/>
-      <c r="X11" s="40"/>
-      <c r="Y11" s="40"/>
-      <c r="Z11" s="40"/>
-      <c r="AA11" s="40"/>
-      <c r="AB11" s="40"/>
-      <c r="AC11" s="40"/>
-      <c r="AD11" s="40"/>
-      <c r="AE11" s="40"/>
-      <c r="AF11" s="40"/>
-      <c r="AG11" s="40"/>
-      <c r="AH11" s="40"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="40"/>
-      <c r="AK11" s="40"/>
-      <c r="AL11" s="40"/>
-      <c r="AM11" s="40"/>
-      <c r="AN11" s="40"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="53">
+        <f>AVERAGE(I12:I14)</f>
+        <v>1</v>
+      </c>
+      <c r="J11" s="27"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="36"/>
+      <c r="W11" s="36"/>
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="36"/>
+      <c r="AC11" s="36"/>
+      <c r="AD11" s="36"/>
+      <c r="AE11" s="36"/>
+      <c r="AF11" s="36"/>
+      <c r="AG11" s="36"/>
+      <c r="AH11" s="36"/>
+      <c r="AI11" s="36"/>
+      <c r="AJ11" s="36"/>
+      <c r="AK11" s="36"/>
+      <c r="AL11" s="36"/>
+      <c r="AM11" s="36"/>
+      <c r="AN11" s="36"/>
       <c r="AO11" s="5"/>
     </row>
     <row r="12" spans="2:41" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
@@ -4051,17 +4116,17 @@
       <c r="F12" s="12">
         <v>44481</v>
       </c>
-      <c r="G12" s="54" t="str">
+      <c r="G12" s="50" t="str">
         <f>IF(OR(E12=0,F12=0),"",NETWORKDAYS(E12,F12)&amp; " day(s)")</f>
         <v>1 day(s)</v>
       </c>
-      <c r="H12" s="55" t="s">
+      <c r="H12" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="59">
+      <c r="I12" s="54">
         <v>1</v>
       </c>
-      <c r="J12" s="31"/>
+      <c r="J12" s="28"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15"/>
       <c r="M12" s="15"/>
@@ -4108,17 +4173,17 @@
       <c r="F13" s="12">
         <v>44482</v>
       </c>
-      <c r="G13" s="54" t="str">
+      <c r="G13" s="50" t="str">
         <f>IF(OR(E13=0,F13=0),"",NETWORKDAYS(E13,F13)&amp; " day(s)")</f>
         <v>1 day(s)</v>
       </c>
-      <c r="H13" s="55" t="s">
+      <c r="H13" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="59">
+      <c r="I13" s="54">
         <v>1</v>
       </c>
-      <c r="J13" s="31"/>
+      <c r="J13" s="28"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
@@ -4165,17 +4230,17 @@
       <c r="F14" s="12">
         <v>44484</v>
       </c>
-      <c r="G14" s="54" t="str">
+      <c r="G14" s="50" t="str">
         <f>IF(OR(E14=0,F14=0),"",NETWORKDAYS(E14,F14)&amp; " day(s)")</f>
         <v>1 day(s)</v>
       </c>
-      <c r="H14" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I14" s="59">
-        <v>0</v>
-      </c>
-      <c r="J14" s="31"/>
+      <c r="H14" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="54">
+        <v>1</v>
+      </c>
+      <c r="J14" s="28"/>
       <c r="K14" s="15"/>
       <c r="L14" s="15"/>
       <c r="M14" s="15"/>
@@ -4208,126 +4273,144 @@
       <c r="AN14" s="15"/>
       <c r="AO14" s="5"/>
     </row>
-    <row r="15" spans="2:41" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:41" ht="18" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="13"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="59"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="15"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
-      <c r="AA15" s="15"/>
-      <c r="AB15" s="15"/>
-      <c r="AC15" s="15"/>
-      <c r="AD15" s="15"/>
-      <c r="AE15" s="15"/>
-      <c r="AF15" s="15"/>
-      <c r="AG15" s="15"/>
-      <c r="AH15" s="15"/>
-      <c r="AI15" s="15"/>
-      <c r="AJ15" s="15"/>
-      <c r="AK15" s="15"/>
-      <c r="AL15" s="15"/>
-      <c r="AM15" s="15"/>
-      <c r="AN15" s="15"/>
+      <c r="C15" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="32"/>
+      <c r="E15" s="35">
+        <f>IF(MIN(E16:E18)&gt;0,MIN(E16:E18),"")</f>
+        <v>44488</v>
+      </c>
+      <c r="F15" s="35">
+        <f>IF(MAX(F16:F18)&gt;0,MAX(F16:F18),"")</f>
+        <v>44492</v>
+      </c>
+      <c r="G15" s="49" t="str">
+        <f>IF(OR(E15="",F15=""),"",NETWORKDAYS(E15,F15)&amp; " day(s)")</f>
+        <v>4 day(s)</v>
+      </c>
+      <c r="H15" s="49"/>
+      <c r="I15" s="53">
+        <f>AVERAGE(I16:I18)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="36"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="36"/>
+      <c r="N15" s="36"/>
+      <c r="O15" s="36"/>
+      <c r="P15" s="36"/>
+      <c r="Q15" s="36"/>
+      <c r="R15" s="36"/>
+      <c r="S15" s="36"/>
+      <c r="T15" s="36"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="36"/>
+      <c r="W15" s="36"/>
+      <c r="X15" s="36"/>
+      <c r="Y15" s="36"/>
+      <c r="Z15" s="36"/>
+      <c r="AA15" s="36"/>
+      <c r="AB15" s="36"/>
+      <c r="AC15" s="36"/>
+      <c r="AD15" s="36"/>
+      <c r="AE15" s="36"/>
+      <c r="AF15" s="36"/>
+      <c r="AG15" s="36"/>
+      <c r="AH15" s="36"/>
+      <c r="AI15" s="36"/>
+      <c r="AJ15" s="36"/>
+      <c r="AK15" s="36"/>
+      <c r="AL15" s="36"/>
+      <c r="AM15" s="36"/>
+      <c r="AN15" s="36"/>
       <c r="AO15" s="5"/>
     </row>
-    <row r="16" spans="2:41" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:41" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="39">
-        <f>IF(MIN(E17:E20)&gt;0,MIN(E17:E20),"")</f>
+      <c r="C16" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="12">
         <v>44488</v>
       </c>
-      <c r="F16" s="39">
-        <f>IF(MAX(F17:F20)&gt;0,MAX(F17:F20),"")</f>
-        <v>44491</v>
-      </c>
-      <c r="G16" s="53" t="str">
-        <f>IF(OR(E16="",F16=""),"",NETWORKDAYS(E16,F16)&amp; " day(s)")</f>
-        <v>4 day(s)</v>
-      </c>
-      <c r="H16" s="53"/>
-      <c r="I16" s="58"/>
-      <c r="J16" s="30"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="40"/>
-      <c r="N16" s="40"/>
-      <c r="O16" s="40"/>
-      <c r="P16" s="40"/>
-      <c r="Q16" s="40"/>
-      <c r="R16" s="40"/>
-      <c r="S16" s="40"/>
-      <c r="T16" s="40"/>
-      <c r="U16" s="40"/>
-      <c r="V16" s="40"/>
-      <c r="W16" s="40"/>
-      <c r="X16" s="40"/>
-      <c r="Y16" s="40"/>
-      <c r="Z16" s="40"/>
-      <c r="AA16" s="40"/>
-      <c r="AB16" s="40"/>
-      <c r="AC16" s="40"/>
-      <c r="AD16" s="40"/>
-      <c r="AE16" s="40"/>
-      <c r="AF16" s="40"/>
-      <c r="AG16" s="40"/>
-      <c r="AH16" s="40"/>
-      <c r="AI16" s="40"/>
-      <c r="AJ16" s="40"/>
-      <c r="AK16" s="40"/>
-      <c r="AL16" s="40"/>
-      <c r="AM16" s="40"/>
-      <c r="AN16" s="40"/>
+      <c r="F16" s="12">
+        <v>44489</v>
+      </c>
+      <c r="G16" s="50" t="str">
+        <f>IF(OR(E16=0,F16=0),"",NETWORKDAYS(E16,F16)&amp; " day(s)")</f>
+        <v>2 day(s)</v>
+      </c>
+      <c r="H16" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="54">
+        <v>1</v>
+      </c>
+      <c r="J16" s="28"/>
+      <c r="K16" s="15"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="15"/>
+      <c r="N16" s="15"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
+      <c r="T16" s="15"/>
+      <c r="U16" s="15"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="15"/>
+      <c r="AB16" s="15"/>
+      <c r="AC16" s="15"/>
+      <c r="AD16" s="15"/>
+      <c r="AE16" s="15"/>
+      <c r="AF16" s="15"/>
+      <c r="AG16" s="15"/>
+      <c r="AH16" s="15"/>
+      <c r="AI16" s="15"/>
+      <c r="AJ16" s="15"/>
+      <c r="AK16" s="15"/>
+      <c r="AL16" s="15"/>
+      <c r="AM16" s="15"/>
+      <c r="AN16" s="15"/>
       <c r="AO16" s="5"/>
     </row>
     <row r="17" spans="2:77" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>19</v>
       </c>
       <c r="E17" s="12">
-        <v>44488</v>
+        <v>44491</v>
       </c>
       <c r="F17" s="12">
-        <v>44489</v>
-      </c>
-      <c r="G17" s="54" t="str">
+        <v>44491</v>
+      </c>
+      <c r="G17" s="50" t="str">
         <f>IF(OR(E17=0,F17=0),"",NETWORKDAYS(E17,F17)&amp; " day(s)")</f>
-        <v>2 day(s)</v>
-      </c>
-      <c r="H17" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I17" s="59">
-        <v>0</v>
-      </c>
-      <c r="J17" s="31"/>
+        <v>1 day(s)</v>
+      </c>
+      <c r="H17" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="54">
+        <v>1</v>
+      </c>
+      <c r="J17" s="28"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15"/>
       <c r="M17" s="15"/>
@@ -4372,19 +4455,19 @@
         <v>44491</v>
       </c>
       <c r="F18" s="12">
-        <v>44491</v>
-      </c>
-      <c r="G18" s="54" t="str">
+        <v>44492</v>
+      </c>
+      <c r="G18" s="50" t="str">
         <f>IF(OR(E18=0,F18=0),"",NETWORKDAYS(E18,F18)&amp; " day(s)")</f>
         <v>1 day(s)</v>
       </c>
-      <c r="H18" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="59">
-        <v>1</v>
-      </c>
-      <c r="J18" s="31"/>
+      <c r="H18" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" s="54">
+        <v>0</v>
+      </c>
+      <c r="J18" s="28"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
@@ -4417,16 +4500,16 @@
       <c r="AN18" s="15"/>
       <c r="AO18" s="5"/>
     </row>
-    <row r="19" spans="2:77" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="13"/>
       <c r="D19" s="14"/>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
-      <c r="G19" s="54"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="31"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="54"/>
+      <c r="J19" s="28"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
@@ -4459,16 +4542,16 @@
       <c r="AN19" s="15"/>
       <c r="AO19" s="5"/>
     </row>
-    <row r="20" spans="2:77" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="13"/>
       <c r="D20" s="14"/>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
-      <c r="G20" s="54"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="31"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="51"/>
+      <c r="I20" s="54"/>
+      <c r="J20" s="28"/>
       <c r="K20" s="15"/>
       <c r="L20" s="15"/>
       <c r="M20" s="15"/>
@@ -4507,10 +4590,10 @@
       <c r="D21" s="14"/>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
-      <c r="G21" s="54"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="31"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="54"/>
+      <c r="J21" s="28"/>
       <c r="K21" s="15"/>
       <c r="L21" s="15"/>
       <c r="M21" s="15"/>
@@ -4549,10 +4632,10 @@
       <c r="D22" s="14"/>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
-      <c r="G22" s="54"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="31"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="51"/>
+      <c r="I22" s="54"/>
+      <c r="J22" s="28"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
       <c r="M22" s="15"/>
@@ -4587,14 +4670,29 @@
     </row>
     <row r="23" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="14"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="54"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="31"/>
+      <c r="C23" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" s="12">
+        <v>43344</v>
+      </c>
+      <c r="F23" s="12">
+        <v>43348</v>
+      </c>
+      <c r="G23" s="50" t="str">
+        <f>IF(OR(E23=0,F23=0),"",NETWORKDAYS(E23,F23)&amp; " day(s)")</f>
+        <v>3 day(s)</v>
+      </c>
+      <c r="H23" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="54">
+        <v>1</v>
+      </c>
+      <c r="J23" s="28"/>
       <c r="K23" s="15"/>
       <c r="L23" s="15"/>
       <c r="M23" s="15"/>
@@ -4629,14 +4727,29 @@
     </row>
     <row r="24" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="31"/>
+      <c r="C24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" s="12">
+        <v>43358</v>
+      </c>
+      <c r="F24" s="12">
+        <v>43366</v>
+      </c>
+      <c r="G24" s="50" t="str">
+        <f>IF(OR(E24=0,F24=0),"",NETWORKDAYS(E24,F24)&amp; " day(s)")</f>
+        <v>5 day(s)</v>
+      </c>
+      <c r="H24" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="54">
+        <v>0.15</v>
+      </c>
+      <c r="J24" s="28"/>
       <c r="K24" s="15"/>
       <c r="L24" s="15"/>
       <c r="M24" s="15"/>
@@ -4672,28 +4785,28 @@
     <row r="25" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>17</v>
       </c>
       <c r="E25" s="12">
-        <v>43344</v>
+        <v>43372</v>
       </c>
       <c r="F25" s="12">
-        <v>43348</v>
-      </c>
-      <c r="G25" s="54" t="str">
+        <v>43380</v>
+      </c>
+      <c r="G25" s="50" t="str">
         <f>IF(OR(E25=0,F25=0),"",NETWORKDAYS(E25,F25)&amp; " day(s)")</f>
-        <v>3 day(s)</v>
-      </c>
-      <c r="H25" s="55" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="59">
-        <v>1</v>
-      </c>
-      <c r="J25" s="31"/>
+        <v>5 day(s)</v>
+      </c>
+      <c r="H25" s="51" t="s">
+        <v>14</v>
+      </c>
+      <c r="I25" s="54">
+        <v>0.25</v>
+      </c>
+      <c r="J25" s="28"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
       <c r="M25" s="15"/>
@@ -4728,29 +4841,14 @@
     </row>
     <row r="26" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="C26" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="12">
-        <v>43358</v>
-      </c>
-      <c r="F26" s="12">
-        <v>43366</v>
-      </c>
-      <c r="G26" s="54" t="str">
-        <f>IF(OR(E26=0,F26=0),"",NETWORKDAYS(E26,F26)&amp; " day(s)")</f>
-        <v>5 day(s)</v>
-      </c>
-      <c r="H26" s="55" t="s">
-        <v>15</v>
-      </c>
-      <c r="I26" s="59">
-        <v>0.15</v>
-      </c>
-      <c r="J26" s="31"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="51"/>
+      <c r="I26" s="54"/>
+      <c r="J26" s="28"/>
       <c r="K26" s="15"/>
       <c r="L26" s="15"/>
       <c r="M26" s="15"/>
@@ -4783,758 +4881,631 @@
       <c r="AN26" s="15"/>
       <c r="AO26" s="5"/>
     </row>
-    <row r="27" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="5"/>
-      <c r="C27" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D27" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E27" s="12">
-        <v>43372</v>
-      </c>
-      <c r="F27" s="12">
-        <v>43380</v>
-      </c>
-      <c r="G27" s="54" t="str">
-        <f>IF(OR(E27=0,F27=0),"",NETWORKDAYS(E27,F27)&amp; " day(s)")</f>
-        <v>5 day(s)</v>
-      </c>
-      <c r="H27" s="55" t="s">
-        <v>14</v>
-      </c>
-      <c r="I27" s="59">
-        <v>0.25</v>
-      </c>
-      <c r="J27" s="31"/>
-      <c r="K27" s="15"/>
-      <c r="L27" s="15"/>
-      <c r="M27" s="15"/>
-      <c r="N27" s="15"/>
-      <c r="O27" s="15"/>
-      <c r="P27" s="15"/>
-      <c r="Q27" s="15"/>
-      <c r="R27" s="15"/>
-      <c r="S27" s="15"/>
-      <c r="T27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="15"/>
-      <c r="Y27" s="15"/>
-      <c r="Z27" s="15"/>
-      <c r="AA27" s="15"/>
-      <c r="AB27" s="15"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
-      <c r="AE27" s="15"/>
-      <c r="AF27" s="15"/>
-      <c r="AG27" s="15"/>
-      <c r="AH27" s="15"/>
-      <c r="AI27" s="15"/>
-      <c r="AJ27" s="15"/>
-      <c r="AK27" s="15"/>
-      <c r="AL27" s="15"/>
-      <c r="AM27" s="15"/>
-      <c r="AN27" s="15"/>
-      <c r="AO27" s="5"/>
+    <row r="27" spans="2:77" s="62" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="65"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="66"/>
+      <c r="J27" s="66"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
+      <c r="N27" s="66"/>
+      <c r="O27" s="66"/>
+      <c r="P27" s="66"/>
+      <c r="Q27" s="66"/>
+      <c r="R27" s="66"/>
+      <c r="S27" s="66"/>
+      <c r="T27" s="66"/>
+      <c r="U27" s="66"/>
+      <c r="V27" s="66"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="66"/>
+      <c r="AC27" s="66"/>
+      <c r="BY27" s="63"/>
     </row>
-    <row r="28" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="5"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="54"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="15"/>
-      <c r="L28" s="15"/>
-      <c r="M28" s="15"/>
-      <c r="N28" s="15"/>
-      <c r="O28" s="15"/>
-      <c r="P28" s="15"/>
-      <c r="Q28" s="15"/>
-      <c r="R28" s="15"/>
-      <c r="S28" s="15"/>
-      <c r="T28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-      <c r="X28" s="15"/>
-      <c r="Y28" s="15"/>
-      <c r="Z28" s="15"/>
-      <c r="AA28" s="15"/>
-      <c r="AB28" s="15"/>
-      <c r="AC28" s="15"/>
-      <c r="AD28" s="15"/>
-      <c r="AE28" s="15"/>
-      <c r="AF28" s="15"/>
-      <c r="AG28" s="15"/>
-      <c r="AH28" s="15"/>
-      <c r="AI28" s="15"/>
-      <c r="AJ28" s="15"/>
-      <c r="AK28" s="15"/>
-      <c r="AL28" s="15"/>
-      <c r="AM28" s="15"/>
-      <c r="AN28" s="15"/>
-      <c r="AO28" s="5"/>
+    <row r="28" spans="2:77" s="68" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="71"/>
+      <c r="D28" s="71" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="90"/>
+      <c r="K28" s="81" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="82"/>
+      <c r="M28" s="82"/>
+      <c r="N28" s="82"/>
+      <c r="O28" s="82"/>
+      <c r="P28" s="82"/>
+      <c r="Q28" s="82"/>
+      <c r="R28" s="82"/>
+      <c r="S28" s="82"/>
+      <c r="T28" s="82"/>
+      <c r="U28" s="82"/>
+      <c r="V28" s="82"/>
+      <c r="W28" s="82"/>
+      <c r="X28" s="82"/>
+      <c r="Y28" s="82"/>
+      <c r="Z28" s="82"/>
+      <c r="AA28" s="82"/>
+      <c r="AB28" s="82"/>
+      <c r="AC28" s="82"/>
+      <c r="AD28" s="82"/>
+      <c r="AE28" s="82"/>
+      <c r="AF28" s="82"/>
+      <c r="AG28" s="82"/>
+      <c r="AH28" s="82"/>
+      <c r="AI28" s="82"/>
+      <c r="AJ28" s="82"/>
+      <c r="AK28" s="82"/>
+      <c r="AL28" s="82"/>
+      <c r="AM28" s="82"/>
+      <c r="AN28" s="82"/>
+      <c r="AO28" s="83"/>
+      <c r="AX28" s="69"/>
+      <c r="AY28" s="69"/>
+      <c r="AZ28" s="69"/>
+      <c r="BA28" s="69"/>
+      <c r="BB28" s="69"/>
+      <c r="BC28" s="69"/>
+      <c r="BD28" s="69"/>
+      <c r="BE28" s="69"/>
     </row>
-    <row r="29" spans="2:77" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="5"/>
-      <c r="C29" s="17"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="32"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
-      <c r="AE29" s="18"/>
-      <c r="AF29" s="18"/>
-      <c r="AG29" s="18"/>
-      <c r="AH29" s="18"/>
-      <c r="AI29" s="18"/>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="18"/>
-      <c r="AL29" s="18"/>
-      <c r="AM29" s="18"/>
-      <c r="AN29" s="18"/>
-      <c r="AO29" s="5"/>
+    <row r="29" spans="2:77" s="62" customFormat="1" ht="89.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="73"/>
+      <c r="D29" s="76" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="76"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="77"/>
+      <c r="J29" s="66"/>
+      <c r="K29" s="78" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="79"/>
+      <c r="M29" s="79"/>
+      <c r="N29" s="79"/>
+      <c r="O29" s="79"/>
+      <c r="P29" s="79"/>
+      <c r="Q29" s="79"/>
+      <c r="R29" s="79"/>
+      <c r="S29" s="79"/>
+      <c r="T29" s="79"/>
+      <c r="U29" s="79"/>
+      <c r="V29" s="79"/>
+      <c r="W29" s="79"/>
+      <c r="X29" s="79"/>
+      <c r="Y29" s="79"/>
+      <c r="Z29" s="79"/>
+      <c r="AA29" s="79"/>
+      <c r="AB29" s="79"/>
+      <c r="AC29" s="79"/>
+      <c r="AD29" s="79"/>
+      <c r="AE29" s="79"/>
+      <c r="AF29" s="79"/>
+      <c r="AG29" s="79"/>
+      <c r="AH29" s="79"/>
+      <c r="AI29" s="79"/>
+      <c r="AJ29" s="79"/>
+      <c r="AK29" s="79"/>
+      <c r="AL29" s="79"/>
+      <c r="AM29" s="79"/>
+      <c r="AN29" s="79"/>
+      <c r="AO29" s="80"/>
+      <c r="BY29" s="63"/>
     </row>
-    <row r="30" spans="2:77" s="67" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="69"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="71"/>
-      <c r="H30" s="71"/>
-      <c r="I30" s="71"/>
-      <c r="J30" s="71"/>
-      <c r="K30" s="71"/>
-      <c r="L30" s="71"/>
-      <c r="M30" s="71"/>
-      <c r="N30" s="71"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="71"/>
-      <c r="T30" s="71"/>
-      <c r="U30" s="71"/>
-      <c r="V30" s="71"/>
-      <c r="W30" s="71"/>
-      <c r="X30" s="71"/>
-      <c r="Y30" s="71"/>
-      <c r="Z30" s="71"/>
-      <c r="AA30" s="71"/>
-      <c r="AB30" s="71"/>
-      <c r="AC30" s="71"/>
-      <c r="BY30" s="68"/>
+    <row r="30" spans="2:77" s="62" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="72" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="73"/>
+      <c r="D30" s="74" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="75"/>
+      <c r="J30" s="66"/>
+      <c r="K30" s="78"/>
+      <c r="L30" s="79"/>
+      <c r="M30" s="79"/>
+      <c r="N30" s="79"/>
+      <c r="O30" s="79"/>
+      <c r="P30" s="79"/>
+      <c r="Q30" s="79"/>
+      <c r="R30" s="79"/>
+      <c r="S30" s="79"/>
+      <c r="T30" s="79"/>
+      <c r="U30" s="79"/>
+      <c r="V30" s="79"/>
+      <c r="W30" s="79"/>
+      <c r="X30" s="79"/>
+      <c r="Y30" s="79"/>
+      <c r="Z30" s="79"/>
+      <c r="AA30" s="79"/>
+      <c r="AB30" s="79"/>
+      <c r="AC30" s="79"/>
+      <c r="AD30" s="79"/>
+      <c r="AE30" s="79"/>
+      <c r="AF30" s="79"/>
+      <c r="AG30" s="79"/>
+      <c r="AH30" s="79"/>
+      <c r="AI30" s="79"/>
+      <c r="AJ30" s="79"/>
+      <c r="AK30" s="79"/>
+      <c r="AL30" s="79"/>
+      <c r="AM30" s="79"/>
+      <c r="AN30" s="79"/>
+      <c r="AO30" s="80"/>
+      <c r="BY30" s="63"/>
     </row>
-    <row r="31" spans="2:77" s="73" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="95" t="s">
-        <v>22</v>
-      </c>
-      <c r="C31" s="93"/>
-      <c r="D31" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" s="93"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="93"/>
-      <c r="H31" s="93"/>
-      <c r="I31" s="94"/>
-      <c r="K31" s="78" t="s">
-        <v>27</v>
-      </c>
-      <c r="L31" s="79"/>
-      <c r="M31" s="79"/>
-      <c r="N31" s="79"/>
-      <c r="O31" s="79"/>
-      <c r="P31" s="79"/>
-      <c r="Q31" s="79"/>
-      <c r="R31" s="79"/>
-      <c r="S31" s="79"/>
-      <c r="T31" s="79"/>
-      <c r="U31" s="79"/>
-      <c r="V31" s="79"/>
-      <c r="W31" s="79"/>
-      <c r="X31" s="79"/>
-      <c r="Y31" s="79"/>
-      <c r="Z31" s="79"/>
-      <c r="AA31" s="79"/>
-      <c r="AB31" s="79"/>
-      <c r="AC31" s="79"/>
-      <c r="AD31" s="79"/>
-      <c r="AE31" s="79"/>
-      <c r="AF31" s="79"/>
-      <c r="AG31" s="79"/>
-      <c r="AH31" s="79"/>
-      <c r="AI31" s="79"/>
-      <c r="AJ31" s="79"/>
-      <c r="AK31" s="79"/>
-      <c r="AL31" s="79"/>
-      <c r="AM31" s="79"/>
-      <c r="AN31" s="79"/>
-      <c r="AO31" s="80"/>
-      <c r="AX31" s="74"/>
-      <c r="AY31" s="74"/>
-      <c r="AZ31" s="74"/>
-      <c r="BA31" s="74"/>
-      <c r="BB31" s="74"/>
-      <c r="BC31" s="74"/>
-      <c r="BD31" s="74"/>
-      <c r="BE31" s="74"/>
+    <row r="31" spans="2:77" s="62" customFormat="1" ht="225.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="72" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="73"/>
+      <c r="D31" s="74" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31" s="74"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="74"/>
+      <c r="H31" s="74"/>
+      <c r="I31" s="75"/>
+      <c r="J31" s="66"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
+      <c r="N31" s="66"/>
+      <c r="O31" s="66"/>
+      <c r="P31" s="66"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="66"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+      <c r="BY31" s="63"/>
     </row>
-    <row r="32" spans="2:77" s="67" customFormat="1" ht="89.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="87" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="88"/>
-      <c r="D32" s="91" t="s">
-        <v>29</v>
-      </c>
-      <c r="E32" s="91"/>
-      <c r="F32" s="91"/>
-      <c r="G32" s="91"/>
-      <c r="H32" s="91"/>
-      <c r="I32" s="92"/>
-      <c r="J32" s="71"/>
-      <c r="K32" s="75" t="s">
-        <v>28</v>
-      </c>
-      <c r="L32" s="76"/>
-      <c r="M32" s="76"/>
-      <c r="N32" s="76"/>
-      <c r="O32" s="76"/>
-      <c r="P32" s="76"/>
-      <c r="Q32" s="76"/>
-      <c r="R32" s="76"/>
-      <c r="S32" s="76"/>
-      <c r="T32" s="76"/>
-      <c r="U32" s="76"/>
-      <c r="V32" s="76"/>
-      <c r="W32" s="76"/>
-      <c r="X32" s="76"/>
-      <c r="Y32" s="76"/>
-      <c r="Z32" s="76"/>
-      <c r="AA32" s="76"/>
-      <c r="AB32" s="76"/>
-      <c r="AC32" s="76"/>
-      <c r="AD32" s="76"/>
-      <c r="AE32" s="76"/>
-      <c r="AF32" s="76"/>
-      <c r="AG32" s="76"/>
-      <c r="AH32" s="76"/>
-      <c r="AI32" s="76"/>
-      <c r="AJ32" s="76"/>
-      <c r="AK32" s="76"/>
-      <c r="AL32" s="76"/>
-      <c r="AM32" s="76"/>
-      <c r="AN32" s="76"/>
-      <c r="AO32" s="77"/>
-      <c r="BY32" s="68"/>
+    <row r="32" spans="2:77" s="62" customFormat="1" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="73"/>
+      <c r="D32" s="76" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="76"/>
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="I32" s="77"/>
+      <c r="J32" s="66"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
+      <c r="M32" s="66"/>
+      <c r="N32" s="66"/>
+      <c r="O32" s="66"/>
+      <c r="P32" s="66"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="66"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="66"/>
+      <c r="AC32" s="66"/>
+      <c r="BY32" s="63"/>
     </row>
-    <row r="33" spans="1:77" s="67" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="87" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="88"/>
-      <c r="D33" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="89"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="71"/>
-      <c r="K33" s="75"/>
-      <c r="L33" s="76"/>
-      <c r="M33" s="76"/>
-      <c r="N33" s="76"/>
-      <c r="O33" s="76"/>
-      <c r="P33" s="76"/>
-      <c r="Q33" s="76"/>
-      <c r="R33" s="76"/>
-      <c r="S33" s="76"/>
-      <c r="T33" s="76"/>
-      <c r="U33" s="76"/>
-      <c r="V33" s="76"/>
-      <c r="W33" s="76"/>
-      <c r="X33" s="76"/>
-      <c r="Y33" s="76"/>
-      <c r="Z33" s="76"/>
-      <c r="AA33" s="76"/>
-      <c r="AB33" s="76"/>
-      <c r="AC33" s="76"/>
-      <c r="AD33" s="76"/>
-      <c r="AE33" s="76"/>
-      <c r="AF33" s="76"/>
-      <c r="AG33" s="76"/>
-      <c r="AH33" s="76"/>
-      <c r="AI33" s="76"/>
-      <c r="AJ33" s="76"/>
-      <c r="AK33" s="76"/>
-      <c r="AL33" s="76"/>
-      <c r="AM33" s="76"/>
-      <c r="AN33" s="76"/>
-      <c r="AO33" s="77"/>
-      <c r="BY33" s="68"/>
+    <row r="33" spans="1:77" s="62" customFormat="1" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="72" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="73"/>
+      <c r="D33" s="91" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" s="91"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
+      <c r="I33" s="92"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
+      <c r="M33" s="66"/>
+      <c r="N33" s="66"/>
+      <c r="O33" s="66"/>
+      <c r="P33" s="66"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="66"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+      <c r="BY33" s="63"/>
     </row>
-    <row r="34" spans="1:77" s="67" customFormat="1" ht="225.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B34" s="87" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="88"/>
-      <c r="D34" s="89" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="89"/>
-      <c r="F34" s="89"/>
-      <c r="G34" s="89"/>
-      <c r="H34" s="89"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="71"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="71"/>
-      <c r="M34" s="71"/>
-      <c r="N34" s="71"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="71"/>
-      <c r="T34" s="71"/>
-      <c r="U34" s="71"/>
-      <c r="V34" s="71"/>
-      <c r="W34" s="71"/>
-      <c r="X34" s="71"/>
-      <c r="Y34" s="71"/>
-      <c r="Z34" s="71"/>
-      <c r="AA34" s="71"/>
-      <c r="AB34" s="71"/>
-      <c r="AC34" s="71"/>
-      <c r="BY34" s="68"/>
+    <row r="34" spans="1:77" s="62" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="66"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="66"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="66"/>
+      <c r="H34" s="66"/>
+      <c r="I34" s="66"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
+      <c r="M34" s="66"/>
+      <c r="N34" s="66"/>
+      <c r="O34" s="66"/>
+      <c r="P34" s="66"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="66"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="BP34" s="63"/>
     </row>
-    <row r="35" spans="1:77" s="67" customFormat="1" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="87" t="s">
-        <v>35</v>
-      </c>
-      <c r="C35" s="88"/>
-      <c r="D35" s="91" t="s">
-        <v>26</v>
-      </c>
-      <c r="E35" s="91"/>
-      <c r="F35" s="91"/>
-      <c r="G35" s="91"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="92"/>
-      <c r="J35" s="71"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="71"/>
-      <c r="M35" s="71"/>
-      <c r="N35" s="71"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="71"/>
-      <c r="T35" s="71"/>
-      <c r="U35" s="71"/>
-      <c r="V35" s="71"/>
-      <c r="W35" s="71"/>
-      <c r="X35" s="71"/>
-      <c r="Y35" s="71"/>
-      <c r="Z35" s="71"/>
-      <c r="AA35" s="71"/>
-      <c r="AB35" s="71"/>
-      <c r="AC35" s="71"/>
-      <c r="BY35" s="68"/>
+    <row r="35" spans="1:77" s="62" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A35" s="66"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="66"/>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="66"/>
+      <c r="L35" s="66"/>
+      <c r="M35" s="66"/>
+      <c r="N35" s="66"/>
+      <c r="O35" s="66"/>
+      <c r="P35" s="66"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="66"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="BP35" s="63"/>
     </row>
-    <row r="36" spans="1:77" s="67" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="71"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="71"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="71"/>
-      <c r="H36" s="71"/>
-      <c r="I36" s="71"/>
-      <c r="J36" s="71"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="71"/>
-      <c r="M36" s="71"/>
-      <c r="N36" s="71"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="71"/>
-      <c r="T36" s="71"/>
-      <c r="BP36" s="68"/>
+    <row r="36" spans="1:77" s="62" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="66"/>
+      <c r="B36" s="66"/>
+      <c r="C36" s="66"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="66"/>
+      <c r="L36" s="66"/>
+      <c r="M36" s="66"/>
+      <c r="N36" s="66"/>
+      <c r="O36" s="66"/>
+      <c r="P36" s="66"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="66"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66"/>
+      <c r="BP36" s="63"/>
     </row>
-    <row r="37" spans="1:77" s="67" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="71"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="71"/>
-      <c r="E37" s="71"/>
-      <c r="F37" s="71"/>
-      <c r="G37" s="71"/>
-      <c r="H37" s="71"/>
-      <c r="I37" s="71"/>
-      <c r="J37" s="71"/>
-      <c r="K37" s="71"/>
-      <c r="L37" s="71"/>
-      <c r="M37" s="71"/>
-      <c r="N37" s="71"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="71"/>
-      <c r="T37" s="71"/>
-      <c r="BP37" s="68"/>
+    <row r="37" spans="1:77" s="62" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A37" s="66"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="66"/>
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="66"/>
+      <c r="I37" s="66"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="66"/>
+      <c r="L37" s="66"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="66"/>
+      <c r="P37" s="66"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="66"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="66"/>
+      <c r="BP37" s="63"/>
     </row>
-    <row r="38" spans="1:77" s="67" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="71"/>
-      <c r="C38" s="71"/>
-      <c r="D38" s="71"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="71"/>
-      <c r="H38" s="71"/>
-      <c r="I38" s="71"/>
-      <c r="J38" s="71"/>
-      <c r="K38" s="71"/>
-      <c r="L38" s="71"/>
-      <c r="M38" s="71"/>
-      <c r="N38" s="71"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="71"/>
-      <c r="T38" s="71"/>
-      <c r="BP38" s="68"/>
+    <row r="38" spans="1:77" s="62" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="66"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="66"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="66"/>
+      <c r="P38" s="66"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="66"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="BP38" s="63"/>
     </row>
-    <row r="39" spans="1:77" s="67" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="71"/>
-      <c r="C39" s="71"/>
-      <c r="D39" s="71"/>
-      <c r="E39" s="71"/>
-      <c r="F39" s="71"/>
-      <c r="G39" s="71"/>
-      <c r="H39" s="71"/>
-      <c r="I39" s="71"/>
-      <c r="J39" s="71"/>
-      <c r="K39" s="71"/>
-      <c r="L39" s="71"/>
-      <c r="M39" s="71"/>
-      <c r="N39" s="71"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="71"/>
-      <c r="T39" s="71"/>
-      <c r="BP39" s="68"/>
+    <row r="39" spans="1:77" s="62" customFormat="1" ht="17" x14ac:dyDescent="0.35">
+      <c r="B39" s="64"/>
+      <c r="C39" s="65"/>
+      <c r="D39" s="65"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="66"/>
+      <c r="I39" s="66"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="66"/>
+      <c r="L39" s="66"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="66"/>
+      <c r="P39" s="66"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="66"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="66"/>
+      <c r="AC39" s="66"/>
+      <c r="BY39" s="63"/>
     </row>
-    <row r="40" spans="1:77" s="67" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="71"/>
-      <c r="C40" s="71"/>
-      <c r="D40" s="71"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="71"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="71"/>
-      <c r="L40" s="71"/>
-      <c r="M40" s="71"/>
-      <c r="N40" s="71"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="71"/>
-      <c r="T40" s="71"/>
-      <c r="BP40" s="68"/>
+    <row r="40" spans="1:77" s="62" customFormat="1" ht="17" x14ac:dyDescent="0.35">
+      <c r="B40" s="64"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="66"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="66"/>
+      <c r="P40" s="66"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="66"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
+      <c r="BY40" s="63"/>
     </row>
-    <row r="41" spans="1:77" s="67" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="71"/>
-      <c r="C41" s="71"/>
-      <c r="D41" s="71"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="71"/>
-      <c r="H41" s="71"/>
-      <c r="I41" s="71"/>
-      <c r="J41" s="71"/>
-      <c r="K41" s="71"/>
-      <c r="L41" s="71"/>
-      <c r="M41" s="71"/>
-      <c r="N41" s="71"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="71"/>
-      <c r="T41" s="71"/>
-      <c r="BP41" s="68"/>
+    <row r="41" spans="1:77" s="62" customFormat="1" ht="17" x14ac:dyDescent="0.35">
+      <c r="B41" s="64"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="66"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="66"/>
+      <c r="K41" s="66"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="66"/>
+      <c r="P41" s="66"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="66"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="66"/>
+      <c r="AB41" s="66"/>
+      <c r="AC41" s="66"/>
+      <c r="BY41" s="63"/>
     </row>
-    <row r="42" spans="1:77" s="67" customFormat="1" ht="17" x14ac:dyDescent="0.35">
-      <c r="B42" s="69"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="71"/>
-      <c r="F42" s="71"/>
-      <c r="G42" s="71"/>
-      <c r="H42" s="71"/>
-      <c r="I42" s="71"/>
-      <c r="J42" s="71"/>
-      <c r="K42" s="71"/>
-      <c r="L42" s="71"/>
-      <c r="M42" s="71"/>
-      <c r="N42" s="71"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="71"/>
-      <c r="T42" s="71"/>
-      <c r="U42" s="71"/>
-      <c r="V42" s="71"/>
-      <c r="W42" s="71"/>
-      <c r="X42" s="71"/>
-      <c r="Y42" s="71"/>
-      <c r="Z42" s="71"/>
-      <c r="AA42" s="71"/>
-      <c r="AB42" s="71"/>
-      <c r="AC42" s="71"/>
-      <c r="BY42" s="68"/>
+    <row r="42" spans="1:77" s="62" customFormat="1" ht="17" x14ac:dyDescent="0.35">
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="66"/>
+      <c r="F42" s="66"/>
+      <c r="G42" s="66"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="66"/>
+      <c r="J42" s="66"/>
+      <c r="K42" s="66"/>
+      <c r="L42" s="66"/>
+      <c r="M42" s="66"/>
+      <c r="N42" s="66"/>
+      <c r="O42" s="66"/>
+      <c r="P42" s="66"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="66"/>
+      <c r="S42" s="66"/>
+      <c r="T42" s="66"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="66"/>
+      <c r="W42" s="66"/>
+      <c r="X42" s="66"/>
+      <c r="Y42" s="66"/>
+      <c r="Z42" s="66"/>
+      <c r="AA42" s="66"/>
+      <c r="AB42" s="66"/>
+      <c r="AC42" s="66"/>
+      <c r="BY42" s="63"/>
     </row>
-    <row r="43" spans="1:77" s="67" customFormat="1" ht="17" x14ac:dyDescent="0.35">
-      <c r="B43" s="69"/>
-      <c r="C43" s="70"/>
-      <c r="D43" s="70"/>
-      <c r="E43" s="71"/>
-      <c r="F43" s="71"/>
-      <c r="G43" s="71"/>
-      <c r="H43" s="71"/>
-      <c r="I43" s="71"/>
-      <c r="J43" s="71"/>
-      <c r="K43" s="71"/>
-      <c r="L43" s="71"/>
-      <c r="M43" s="71"/>
-      <c r="N43" s="71"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="71"/>
-      <c r="T43" s="71"/>
-      <c r="U43" s="71"/>
-      <c r="V43" s="71"/>
-      <c r="W43" s="71"/>
-      <c r="X43" s="71"/>
-      <c r="Y43" s="71"/>
-      <c r="Z43" s="71"/>
-      <c r="AA43" s="71"/>
-      <c r="AB43" s="71"/>
-      <c r="AC43" s="71"/>
-      <c r="BY43" s="68"/>
+    <row r="43" spans="1:77" s="62" customFormat="1" ht="17" x14ac:dyDescent="0.35">
+      <c r="B43" s="64"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="65"/>
+      <c r="E43" s="66"/>
+      <c r="F43" s="66"/>
+      <c r="G43" s="66"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="66"/>
+      <c r="J43" s="66"/>
+      <c r="K43" s="66"/>
+      <c r="L43" s="66"/>
+      <c r="M43" s="66"/>
+      <c r="N43" s="66"/>
+      <c r="O43" s="66"/>
+      <c r="P43" s="66"/>
+      <c r="Q43" s="66"/>
+      <c r="R43" s="66"/>
+      <c r="S43" s="66"/>
+      <c r="T43" s="66"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="66"/>
+      <c r="Y43" s="66"/>
+      <c r="Z43" s="66"/>
+      <c r="AA43" s="66"/>
+      <c r="AB43" s="66"/>
+      <c r="AC43" s="66"/>
+      <c r="BY43" s="63"/>
     </row>
-    <row r="44" spans="1:77" s="67" customFormat="1" ht="17" x14ac:dyDescent="0.35">
-      <c r="B44" s="69"/>
-      <c r="C44" s="70"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="71"/>
-      <c r="F44" s="71"/>
-      <c r="G44" s="71"/>
-      <c r="H44" s="71"/>
-      <c r="I44" s="71"/>
-      <c r="J44" s="71"/>
-      <c r="K44" s="71"/>
-      <c r="L44" s="71"/>
-      <c r="M44" s="71"/>
-      <c r="N44" s="71"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="71"/>
-      <c r="T44" s="71"/>
-      <c r="U44" s="71"/>
-      <c r="V44" s="71"/>
-      <c r="W44" s="71"/>
-      <c r="X44" s="71"/>
-      <c r="Y44" s="71"/>
-      <c r="Z44" s="71"/>
-      <c r="AA44" s="71"/>
-      <c r="AB44" s="71"/>
-      <c r="AC44" s="71"/>
-      <c r="BY44" s="68"/>
-    </row>
-    <row r="45" spans="1:77" s="67" customFormat="1" ht="17" x14ac:dyDescent="0.35">
-      <c r="B45" s="69"/>
-      <c r="C45" s="70"/>
-      <c r="D45" s="70"/>
-      <c r="E45" s="71"/>
-      <c r="F45" s="71"/>
-      <c r="G45" s="71"/>
-      <c r="H45" s="71"/>
-      <c r="I45" s="71"/>
-      <c r="J45" s="71"/>
-      <c r="K45" s="71"/>
-      <c r="L45" s="71"/>
-      <c r="M45" s="71"/>
-      <c r="N45" s="71"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="71"/>
-      <c r="Q45" s="71"/>
-      <c r="R45" s="71"/>
-      <c r="S45" s="71"/>
-      <c r="T45" s="71"/>
-      <c r="U45" s="71"/>
-      <c r="V45" s="71"/>
-      <c r="W45" s="71"/>
-      <c r="X45" s="71"/>
-      <c r="Y45" s="71"/>
-      <c r="Z45" s="71"/>
-      <c r="AA45" s="71"/>
-      <c r="AB45" s="71"/>
-      <c r="AC45" s="71"/>
-      <c r="BY45" s="68"/>
-    </row>
-    <row r="46" spans="1:77" s="67" customFormat="1" ht="17" x14ac:dyDescent="0.35">
-      <c r="B46" s="69"/>
-      <c r="C46" s="70"/>
-      <c r="D46" s="70"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="71"/>
-      <c r="H46" s="71"/>
-      <c r="I46" s="71"/>
-      <c r="J46" s="71"/>
-      <c r="K46" s="71"/>
-      <c r="L46" s="71"/>
-      <c r="M46" s="71"/>
-      <c r="N46" s="71"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="71"/>
-      <c r="T46" s="71"/>
-      <c r="U46" s="71"/>
-      <c r="V46" s="71"/>
-      <c r="W46" s="71"/>
-      <c r="X46" s="71"/>
-      <c r="Y46" s="71"/>
-      <c r="Z46" s="71"/>
-      <c r="AA46" s="71"/>
-      <c r="AB46" s="71"/>
-      <c r="AC46" s="71"/>
-      <c r="BY46" s="68"/>
-    </row>
-    <row r="47" spans="1:77" s="67" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B47" s="69"/>
-      <c r="C47" s="70"/>
-      <c r="D47" s="70"/>
-      <c r="E47" s="71"/>
-      <c r="F47" s="71"/>
-      <c r="G47" s="71"/>
-      <c r="H47" s="71"/>
-      <c r="I47" s="71"/>
-      <c r="J47" s="71"/>
-      <c r="K47" s="71"/>
-      <c r="L47" s="71"/>
-      <c r="M47" s="71"/>
-      <c r="N47" s="71"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="71"/>
-      <c r="T47" s="71"/>
-      <c r="U47" s="71"/>
-      <c r="V47" s="71"/>
-      <c r="W47" s="71"/>
-      <c r="X47" s="71"/>
-      <c r="Y47" s="71"/>
-      <c r="Z47" s="71"/>
-      <c r="AA47" s="71"/>
-      <c r="AB47" s="71"/>
-      <c r="AC47" s="71"/>
-      <c r="BY47" s="68"/>
+    <row r="44" spans="1:77" s="62" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="66"/>
+      <c r="J44" s="66"/>
+      <c r="K44" s="66"/>
+      <c r="L44" s="66"/>
+      <c r="M44" s="66"/>
+      <c r="N44" s="66"/>
+      <c r="O44" s="66"/>
+      <c r="P44" s="66"/>
+      <c r="Q44" s="66"/>
+      <c r="R44" s="66"/>
+      <c r="S44" s="66"/>
+      <c r="T44" s="66"/>
+      <c r="U44" s="66"/>
+      <c r="V44" s="66"/>
+      <c r="W44" s="66"/>
+      <c r="X44" s="66"/>
+      <c r="Y44" s="66"/>
+      <c r="Z44" s="66"/>
+      <c r="AA44" s="66"/>
+      <c r="AB44" s="66"/>
+      <c r="AC44" s="66"/>
+      <c r="BY44" s="63"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
-  <mergeCells count="23">
-    <mergeCell ref="B31:C31"/>
+  <mergeCells count="25">
     <mergeCell ref="B33:C33"/>
     <mergeCell ref="D33:I33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:I34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="K32:AO32"/>
-    <mergeCell ref="K33:AO33"/>
-    <mergeCell ref="K31:AO31"/>
+    <mergeCell ref="AJ5:AN7"/>
+    <mergeCell ref="P5:T7"/>
+    <mergeCell ref="U5:Y7"/>
+    <mergeCell ref="Z5:AD7"/>
+    <mergeCell ref="AE5:AI7"/>
     <mergeCell ref="C3:I4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="K5:O7"/>
     <mergeCell ref="F6:G6"/>
     <mergeCell ref="C9:I9"/>
-    <mergeCell ref="AJ5:AN7"/>
-    <mergeCell ref="P5:T7"/>
-    <mergeCell ref="U5:Y7"/>
-    <mergeCell ref="Z5:AD7"/>
-    <mergeCell ref="AE5:AI7"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:I32"/>
+    <mergeCell ref="K29:AO29"/>
+    <mergeCell ref="K30:AO30"/>
+    <mergeCell ref="K28:AO28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:I31"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K8:AN8">
-    <cfRule type="expression" dxfId="14" priority="156">
+    <cfRule type="expression" dxfId="19" priority="162">
       <formula>$K$8=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I10:I12 I19:I29 I14:I16">
-    <cfRule type="dataBar" priority="37">
+  <conditionalFormatting sqref="I19:I26 I11:I12 I14:I15">
+    <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5547,27 +5518,27 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12 H19:H28 H14:H16">
-    <cfRule type="cellIs" dxfId="13" priority="33" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H12 H14:H15 H19:H26">
+    <cfRule type="cellIs" dxfId="18" priority="39" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="34" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="40" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="35" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="41" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K11:AN29">
-    <cfRule type="expression" dxfId="10" priority="157">
-      <formula>AND($I11&gt;5%, $E11&lt;=K$8,ROUNDDOWN(NETWORKDAYS($E11,$F11)*$I11,0)+$E11+1&gt;=K$8)</formula>
+  <conditionalFormatting sqref="K12:AN26">
+    <cfRule type="expression" dxfId="15" priority="163">
+      <formula>AND($I12&gt;5%, $E12&lt;=K$8,ROUNDDOWN(NETWORKDAYS($E12,$F12)*$I12,0)+$E12+1&gt;=K$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="158">
-      <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$8,$F11&gt;=K$8)</formula>
+    <cfRule type="expression" dxfId="14" priority="164">
+      <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$8,$F12&gt;=K$8)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I17">
-    <cfRule type="dataBar" priority="22">
+  <conditionalFormatting sqref="I16">
+    <cfRule type="dataBar" priority="28">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5580,19 +5551,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="8" priority="19" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H16">
+    <cfRule type="cellIs" dxfId="13" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="26" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="dataBar" priority="16">
+  <conditionalFormatting sqref="I17">
+    <cfRule type="dataBar" priority="22">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5605,19 +5576,19 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="5" priority="13" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="10" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="20" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I13">
-    <cfRule type="dataBar" priority="10">
+    <cfRule type="dataBar" priority="16">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5631,21 +5602,54 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="2" priority="7" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="8" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="14" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="9" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="15" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="I18">
+    <cfRule type="dataBar" priority="4">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="9" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{FACC1E94-9220-4E70-9F96-3627822B5AA2}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H18">
+    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Yellow"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
+      <formula>"Green"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+      <formula>"Red"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11:AN11">
+    <cfRule type="expression" dxfId="1" priority="169">
+      <formula>AND(#REF!&gt;5%, $E11&lt;=K$8,ROUNDDOWN(NETWORKDAYS($E11,$F11)*#REF!,0)+$E11+1&gt;=K$8)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="0" priority="170">
+      <formula>AND(NOT(ISBLANK($E11)),$E11&lt;=K$8,$F11&gt;=K$8)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D17:D19 D25:D27 D21:D23 D12:D14" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D14 D23:D25 D16:D21" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Low, Medium,High"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H17:H19 H25:H27 H21:H23 H12:H14" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H14 H23:H25 H16:H21" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Red, Yellow,Green"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5669,7 +5673,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I10:I12 I19:I29 I14:I16</xm:sqref>
+          <xm:sqref>I19:I26 I11:I12 I14:I15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C62A6621-A3CE-40E1-A5FF-9C7C62959795}">
@@ -5684,7 +5688,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I17</xm:sqref>
+          <xm:sqref>I16</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{953EB8B6-C791-4356-ABB1-312C85AAA81D}">
@@ -5699,7 +5703,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I18</xm:sqref>
+          <xm:sqref>I17</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{75C672E8-9B7E-4377-9D47-962014AA44FB}">
@@ -5715,6 +5719,21 @@
             </x14:dataBar>
           </x14:cfRule>
           <xm:sqref>I13</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{FACC1E94-9220-4E70-9F96-3627822B5AA2}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>I18</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -5732,7 +5751,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.1796875" style="72"/>
+    <col min="1" max="16384" width="9.1796875" style="67"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Excel-Sprint-Project-Tracker.xlsx
+++ b/Excel-Sprint-Project-Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EDE55EC-A816-438B-9DF4-F80E4C72ED25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDC825E-1F0F-46BB-B312-1A480F98F59C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="prevWBS" localSheetId="0">'Excel Sprint Project Tracker'!$C1048576</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Excel Sprint Project Tracker'!$C$3:$AN$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Excel Sprint Project Tracker'!$C$3:$AN$25</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Excel Sprint Project Tracker'!$6:$8</definedName>
     <definedName name="valuevx">42.314159</definedName>
     <definedName name="vertex42_copyright" hidden="1">"© 2006-2018 Vertex42 LLC"</definedName>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="40">
   <si>
     <t>Project Summary</t>
   </si>
@@ -1346,47 +1346,20 @@
     <xf numFmtId="0" fontId="57" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="58" fillId="27" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="27" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="59" fillId="28" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="59" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="59" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="41" fontId="59" fillId="28" borderId="22" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="59" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="41" fontId="59" fillId="28" borderId="23" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="30" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="30" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="61" fillId="30" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="58" fillId="29" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="29" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="29" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="166" fontId="41" fillId="22" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="21" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1396,9 +1369,6 @@
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="41" fillId="22" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="166" fontId="41" fillId="22" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
@@ -1408,14 +1378,44 @@
     <xf numFmtId="0" fontId="45" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="30" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="30" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="61" fillId="30" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="29" borderId="24" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="29" borderId="25" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="29" borderId="26" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="58" fillId="27" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="58" fillId="27" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="59" fillId="28" borderId="22" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="59" fillId="28" borderId="23" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="58" fillId="27" borderId="21" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="22" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="59" fillId="28" borderId="23" xfId="34" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="48">
@@ -1468,7 +1468,7 @@
     <cellStyle name="Total" xfId="41" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="42" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="17">
     <dxf>
       <fill>
         <patternFill>
@@ -1480,27 +1480,6 @@
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1606,41 +1585,6 @@
       <font>
         <color theme="0"/>
       </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor theme="9" tint="-0.24994659260841701"/>
@@ -3406,10 +3350,10 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BY44"/>
+  <dimension ref="A1:BY43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A8" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.26953125" defaultRowHeight="12.5" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -3477,15 +3421,15 @@
     </row>
     <row r="3" spans="2:41" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="5"/>
-      <c r="C3" s="84" t="s">
+      <c r="C3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
       <c r="J3" s="9"/>
       <c r="K3" s="56"/>
       <c r="L3" s="57" t="s">
@@ -3525,13 +3469,13 @@
     </row>
     <row r="4" spans="2:41" ht="23.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="5"/>
-      <c r="C4" s="84"/>
-      <c r="D4" s="84"/>
-      <c r="E4" s="84"/>
-      <c r="F4" s="84"/>
-      <c r="G4" s="84"/>
-      <c r="H4" s="84"/>
-      <c r="I4" s="84"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="75"/>
+      <c r="I4" s="75"/>
       <c r="J4" s="11"/>
       <c r="K4" s="42"/>
       <c r="L4" s="42"/>
@@ -3575,54 +3519,54 @@
       <c r="H5" s="21"/>
       <c r="I5" s="21"/>
       <c r="J5" s="25"/>
-      <c r="K5" s="86">
+      <c r="K5" s="74">
         <f>CHOOSE(WEEKDAY(D6+(H6-1)*7),5,4,3,2,1,0,6)+D6+(H6-1)*7</f>
         <v>44484</v>
       </c>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86">
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
+      <c r="O5" s="74"/>
+      <c r="P5" s="74">
         <f>K5+7</f>
         <v>44491</v>
       </c>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86">
+      <c r="Q5" s="74"/>
+      <c r="R5" s="74"/>
+      <c r="S5" s="74"/>
+      <c r="T5" s="74"/>
+      <c r="U5" s="74">
         <f>P5+7</f>
         <v>44498</v>
       </c>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86">
+      <c r="V5" s="74"/>
+      <c r="W5" s="74"/>
+      <c r="X5" s="74"/>
+      <c r="Y5" s="74"/>
+      <c r="Z5" s="74">
         <f>U5+7</f>
         <v>44505</v>
       </c>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="86">
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74">
         <f>Z5+7</f>
         <v>44512</v>
       </c>
-      <c r="AF5" s="86"/>
-      <c r="AG5" s="86"/>
-      <c r="AH5" s="86"/>
-      <c r="AI5" s="86"/>
-      <c r="AJ5" s="86">
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74">
         <f>AE5+7</f>
         <v>44519</v>
       </c>
-      <c r="AK5" s="86"/>
-      <c r="AL5" s="86"/>
-      <c r="AM5" s="86"/>
-      <c r="AN5" s="86"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="74"/>
       <c r="AO5" s="5"/>
     </row>
     <row r="6" spans="2:41" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3630,49 +3574,49 @@
       <c r="C6" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="85">
+      <c r="D6" s="76">
         <v>44479</v>
       </c>
-      <c r="E6" s="85"/>
-      <c r="F6" s="88" t="s">
+      <c r="E6" s="76"/>
+      <c r="F6" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="88"/>
+      <c r="G6" s="78"/>
       <c r="H6" s="47">
         <v>1</v>
       </c>
       <c r="I6" s="59"/>
       <c r="J6" s="34"/>
-      <c r="K6" s="87"/>
-      <c r="L6" s="86"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="86"/>
-      <c r="P6" s="86"/>
-      <c r="Q6" s="86"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="86"/>
-      <c r="T6" s="86"/>
-      <c r="U6" s="86"/>
-      <c r="V6" s="86"/>
-      <c r="W6" s="86"/>
-      <c r="X6" s="86"/>
-      <c r="Y6" s="86"/>
-      <c r="Z6" s="86"/>
-      <c r="AA6" s="86"/>
-      <c r="AB6" s="86"/>
-      <c r="AC6" s="86"/>
-      <c r="AD6" s="86"/>
-      <c r="AE6" s="86"/>
-      <c r="AF6" s="86"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="86"/>
-      <c r="AI6" s="86"/>
-      <c r="AJ6" s="86"/>
-      <c r="AK6" s="86"/>
-      <c r="AL6" s="86"/>
-      <c r="AM6" s="86"/>
-      <c r="AN6" s="86"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="74"/>
+      <c r="M6" s="74"/>
+      <c r="N6" s="74"/>
+      <c r="O6" s="74"/>
+      <c r="P6" s="74"/>
+      <c r="Q6" s="74"/>
+      <c r="R6" s="74"/>
+      <c r="S6" s="74"/>
+      <c r="T6" s="74"/>
+      <c r="U6" s="74"/>
+      <c r="V6" s="74"/>
+      <c r="W6" s="74"/>
+      <c r="X6" s="74"/>
+      <c r="Y6" s="74"/>
+      <c r="Z6" s="74"/>
+      <c r="AA6" s="74"/>
+      <c r="AB6" s="74"/>
+      <c r="AC6" s="74"/>
+      <c r="AD6" s="74"/>
+      <c r="AE6" s="74"/>
+      <c r="AF6" s="74"/>
+      <c r="AG6" s="74"/>
+      <c r="AH6" s="74"/>
+      <c r="AI6" s="74"/>
+      <c r="AJ6" s="74"/>
+      <c r="AK6" s="74"/>
+      <c r="AL6" s="74"/>
+      <c r="AM6" s="74"/>
+      <c r="AN6" s="74"/>
       <c r="AO6" s="5"/>
     </row>
     <row r="7" spans="2:41" ht="6.4" customHeight="1" x14ac:dyDescent="0.25">
@@ -3685,36 +3629,36 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
       <c r="J7" s="34"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="86"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="86"/>
-      <c r="O7" s="86"/>
-      <c r="P7" s="86"/>
-      <c r="Q7" s="86"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="86"/>
-      <c r="T7" s="86"/>
-      <c r="U7" s="86"/>
-      <c r="V7" s="86"/>
-      <c r="W7" s="86"/>
-      <c r="X7" s="86"/>
-      <c r="Y7" s="86"/>
-      <c r="Z7" s="86"/>
-      <c r="AA7" s="86"/>
-      <c r="AB7" s="86"/>
-      <c r="AC7" s="86"/>
-      <c r="AD7" s="86"/>
-      <c r="AE7" s="86"/>
-      <c r="AF7" s="86"/>
-      <c r="AG7" s="86"/>
-      <c r="AH7" s="86"/>
-      <c r="AI7" s="86"/>
-      <c r="AJ7" s="86"/>
-      <c r="AK7" s="86"/>
-      <c r="AL7" s="86"/>
-      <c r="AM7" s="86"/>
-      <c r="AN7" s="86"/>
+      <c r="K7" s="77"/>
+      <c r="L7" s="74"/>
+      <c r="M7" s="74"/>
+      <c r="N7" s="74"/>
+      <c r="O7" s="74"/>
+      <c r="P7" s="74"/>
+      <c r="Q7" s="74"/>
+      <c r="R7" s="74"/>
+      <c r="S7" s="74"/>
+      <c r="T7" s="74"/>
+      <c r="U7" s="74"/>
+      <c r="V7" s="74"/>
+      <c r="W7" s="74"/>
+      <c r="X7" s="74"/>
+      <c r="Y7" s="74"/>
+      <c r="Z7" s="74"/>
+      <c r="AA7" s="74"/>
+      <c r="AB7" s="74"/>
+      <c r="AC7" s="74"/>
+      <c r="AD7" s="74"/>
+      <c r="AE7" s="74"/>
+      <c r="AF7" s="74"/>
+      <c r="AG7" s="74"/>
+      <c r="AH7" s="74"/>
+      <c r="AI7" s="74"/>
+      <c r="AJ7" s="74"/>
+      <c r="AK7" s="74"/>
+      <c r="AL7" s="74"/>
+      <c r="AM7" s="74"/>
+      <c r="AN7" s="74"/>
       <c r="AO7" s="5"/>
     </row>
     <row r="8" spans="2:41" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3865,13 +3809,13 @@
     </row>
     <row r="9" spans="2:41" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="89"/>
-      <c r="E9" s="89"/>
-      <c r="F9" s="89"/>
-      <c r="G9" s="89"/>
-      <c r="H9" s="89"/>
-      <c r="I9" s="89"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
       <c r="J9" s="26"/>
       <c r="K9" s="29" t="str">
         <f>CHOOSE(WEEKDAY(K8,1),"S","M","T","W","T","F","S")</f>
@@ -4005,8 +3949,8 @@
         <v>44481</v>
       </c>
       <c r="F10" s="41">
-        <f>IF(MAX(F11:F26)&gt;0,MAX(F11:F26),"")</f>
-        <v>44492</v>
+        <f>IF(MAX(F11:F25)&gt;0,MAX(F11:F25),"")</f>
+        <v>44491</v>
       </c>
       <c r="G10" s="52" t="str">
         <f>IF(OR(E10="",F10=""),"",NETWORKDAYS(E10,F10)&amp; " day(s)")</f>
@@ -4280,12 +4224,12 @@
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="35">
-        <f>IF(MIN(E16:E18)&gt;0,MIN(E16:E18),"")</f>
+        <f>IF(MIN(E16:E17)&gt;0,MIN(E16:E17),"")</f>
         <v>44488</v>
       </c>
       <c r="F15" s="35">
-        <f>IF(MAX(F16:F18)&gt;0,MAX(F16:F18),"")</f>
-        <v>44492</v>
+        <f>IF(MAX(F16:F17)&gt;0,MAX(F16:F17),"")</f>
+        <v>44491</v>
       </c>
       <c r="G15" s="49" t="str">
         <f>IF(OR(E15="",F15=""),"",NETWORKDAYS(E15,F15)&amp; " day(s)")</f>
@@ -4293,8 +4237,8 @@
       </c>
       <c r="H15" s="49"/>
       <c r="I15" s="53">
-        <f>AVERAGE(I16:I18)</f>
-        <v>0.66666666666666663</v>
+        <f>AVERAGE(I16:I17)</f>
+        <v>1</v>
       </c>
       <c r="J15" s="27"/>
       <c r="K15" s="36"/>
@@ -4443,30 +4387,15 @@
       <c r="AN17" s="15"/>
       <c r="AO17" s="5"/>
     </row>
-    <row r="18" spans="2:77" ht="18" outlineLevel="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-      <c r="C18" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="12">
-        <v>44491</v>
-      </c>
-      <c r="F18" s="12">
-        <v>44492</v>
-      </c>
-      <c r="G18" s="50" t="str">
-        <f>IF(OR(E18=0,F18=0),"",NETWORKDAYS(E18,F18)&amp; " day(s)")</f>
-        <v>1 day(s)</v>
-      </c>
-      <c r="H18" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="54">
-        <v>0</v>
-      </c>
+      <c r="C18" s="13"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="54"/>
       <c r="J18" s="28"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15"/>
@@ -4628,13 +4557,28 @@
     </row>
     <row r="22" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="13"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="50"/>
-      <c r="H22" s="51"/>
-      <c r="I22" s="54"/>
+      <c r="C22" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E22" s="12">
+        <v>43344</v>
+      </c>
+      <c r="F22" s="12">
+        <v>43348</v>
+      </c>
+      <c r="G22" s="50" t="str">
+        <f>IF(OR(E22=0,F22=0),"",NETWORKDAYS(E22,F22)&amp; " day(s)")</f>
+        <v>3 day(s)</v>
+      </c>
+      <c r="H22" s="51" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="54">
+        <v>1</v>
+      </c>
       <c r="J22" s="28"/>
       <c r="K22" s="15"/>
       <c r="L22" s="15"/>
@@ -4671,26 +4615,26 @@
     <row r="23" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" s="14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E23" s="12">
-        <v>43344</v>
+        <v>43358</v>
       </c>
       <c r="F23" s="12">
-        <v>43348</v>
+        <v>43366</v>
       </c>
       <c r="G23" s="50" t="str">
         <f>IF(OR(E23=0,F23=0),"",NETWORKDAYS(E23,F23)&amp; " day(s)")</f>
-        <v>3 day(s)</v>
+        <v>5 day(s)</v>
       </c>
       <c r="H23" s="51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I23" s="54">
-        <v>1</v>
+        <v>0.15</v>
       </c>
       <c r="J23" s="28"/>
       <c r="K23" s="15"/>
@@ -4728,26 +4672,26 @@
     <row r="24" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D24" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E24" s="12">
-        <v>43358</v>
+        <v>43372</v>
       </c>
       <c r="F24" s="12">
-        <v>43366</v>
+        <v>43380</v>
       </c>
       <c r="G24" s="50" t="str">
         <f>IF(OR(E24=0,F24=0),"",NETWORKDAYS(E24,F24)&amp; " day(s)")</f>
         <v>5 day(s)</v>
       </c>
       <c r="H24" s="51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I24" s="54">
-        <v>0.15</v>
+        <v>0.25</v>
       </c>
       <c r="J24" s="28"/>
       <c r="K24" s="15"/>
@@ -4784,28 +4728,13 @@
     </row>
     <row r="25" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D25" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="E25" s="12">
-        <v>43372</v>
-      </c>
-      <c r="F25" s="12">
-        <v>43380</v>
-      </c>
-      <c r="G25" s="50" t="str">
-        <f>IF(OR(E25=0,F25=0),"",NETWORKDAYS(E25,F25)&amp; " day(s)")</f>
-        <v>5 day(s)</v>
-      </c>
-      <c r="H25" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="I25" s="54">
-        <v>0.25</v>
-      </c>
+      <c r="C25" s="13"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="28"/>
       <c r="K25" s="15"/>
       <c r="L25" s="15"/>
@@ -4839,243 +4768,236 @@
       <c r="AN25" s="15"/>
       <c r="AO25" s="5"/>
     </row>
-    <row r="26" spans="2:77" ht="18" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="5"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="54"/>
-      <c r="J26" s="28"/>
-      <c r="K26" s="15"/>
-      <c r="L26" s="15"/>
-      <c r="M26" s="15"/>
-      <c r="N26" s="15"/>
-      <c r="O26" s="15"/>
-      <c r="P26" s="15"/>
-      <c r="Q26" s="15"/>
-      <c r="R26" s="15"/>
-      <c r="S26" s="15"/>
-      <c r="T26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-      <c r="X26" s="15"/>
-      <c r="Y26" s="15"/>
-      <c r="Z26" s="15"/>
-      <c r="AA26" s="15"/>
-      <c r="AB26" s="15"/>
-      <c r="AC26" s="15"/>
-      <c r="AD26" s="15"/>
-      <c r="AE26" s="15"/>
-      <c r="AF26" s="15"/>
-      <c r="AG26" s="15"/>
-      <c r="AH26" s="15"/>
-      <c r="AI26" s="15"/>
-      <c r="AJ26" s="15"/>
-      <c r="AK26" s="15"/>
-      <c r="AL26" s="15"/>
-      <c r="AM26" s="15"/>
-      <c r="AN26" s="15"/>
-      <c r="AO26" s="5"/>
+    <row r="26" spans="2:77" s="62" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="66"/>
+      <c r="J26" s="66"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="66"/>
+      <c r="N26" s="66"/>
+      <c r="O26" s="66"/>
+      <c r="P26" s="66"/>
+      <c r="Q26" s="66"/>
+      <c r="R26" s="66"/>
+      <c r="S26" s="66"/>
+      <c r="T26" s="66"/>
+      <c r="U26" s="66"/>
+      <c r="V26" s="66"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="66"/>
+      <c r="AC26" s="66"/>
+      <c r="BY26" s="63"/>
     </row>
-    <row r="27" spans="2:77" s="62" customFormat="1" ht="17.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="65"/>
-      <c r="E27" s="66"/>
-      <c r="F27" s="66"/>
-      <c r="G27" s="66"/>
-      <c r="H27" s="66"/>
-      <c r="I27" s="66"/>
-      <c r="J27" s="66"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
-      <c r="N27" s="66"/>
-      <c r="O27" s="66"/>
-      <c r="P27" s="66"/>
-      <c r="Q27" s="66"/>
-      <c r="R27" s="66"/>
-      <c r="S27" s="66"/>
-      <c r="T27" s="66"/>
-      <c r="U27" s="66"/>
-      <c r="V27" s="66"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="66"/>
-      <c r="AC27" s="66"/>
-      <c r="BY27" s="63"/>
+    <row r="27" spans="2:77" s="68" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="89"/>
+      <c r="K27" s="85" t="s">
+        <v>27</v>
+      </c>
+      <c r="L27" s="86"/>
+      <c r="M27" s="86"/>
+      <c r="N27" s="86"/>
+      <c r="O27" s="86"/>
+      <c r="P27" s="86"/>
+      <c r="Q27" s="86"/>
+      <c r="R27" s="86"/>
+      <c r="S27" s="86"/>
+      <c r="T27" s="86"/>
+      <c r="U27" s="86"/>
+      <c r="V27" s="86"/>
+      <c r="W27" s="86"/>
+      <c r="X27" s="86"/>
+      <c r="Y27" s="86"/>
+      <c r="Z27" s="86"/>
+      <c r="AA27" s="86"/>
+      <c r="AB27" s="86"/>
+      <c r="AC27" s="86"/>
+      <c r="AD27" s="86"/>
+      <c r="AE27" s="86"/>
+      <c r="AF27" s="86"/>
+      <c r="AG27" s="86"/>
+      <c r="AH27" s="86"/>
+      <c r="AI27" s="86"/>
+      <c r="AJ27" s="86"/>
+      <c r="AK27" s="86"/>
+      <c r="AL27" s="86"/>
+      <c r="AM27" s="86"/>
+      <c r="AN27" s="86"/>
+      <c r="AO27" s="87"/>
+      <c r="AX27" s="69"/>
+      <c r="AY27" s="69"/>
+      <c r="AZ27" s="69"/>
+      <c r="BA27" s="69"/>
+      <c r="BB27" s="69"/>
+      <c r="BC27" s="69"/>
+      <c r="BD27" s="69"/>
+      <c r="BE27" s="69"/>
     </row>
-    <row r="28" spans="2:77" s="68" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:77" s="62" customFormat="1" ht="89.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B28" s="70" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C28" s="71"/>
-      <c r="D28" s="71" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="90"/>
-      <c r="K28" s="81" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" s="82"/>
-      <c r="M28" s="82"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="82"/>
-      <c r="P28" s="82"/>
-      <c r="Q28" s="82"/>
-      <c r="R28" s="82"/>
-      <c r="S28" s="82"/>
-      <c r="T28" s="82"/>
-      <c r="U28" s="82"/>
-      <c r="V28" s="82"/>
-      <c r="W28" s="82"/>
-      <c r="X28" s="82"/>
-      <c r="Y28" s="82"/>
-      <c r="Z28" s="82"/>
-      <c r="AA28" s="82"/>
-      <c r="AB28" s="82"/>
-      <c r="AC28" s="82"/>
-      <c r="AD28" s="82"/>
-      <c r="AE28" s="82"/>
-      <c r="AF28" s="82"/>
-      <c r="AG28" s="82"/>
-      <c r="AH28" s="82"/>
-      <c r="AI28" s="82"/>
-      <c r="AJ28" s="82"/>
-      <c r="AK28" s="82"/>
-      <c r="AL28" s="82"/>
-      <c r="AM28" s="82"/>
-      <c r="AN28" s="82"/>
-      <c r="AO28" s="83"/>
-      <c r="AX28" s="69"/>
-      <c r="AY28" s="69"/>
-      <c r="AZ28" s="69"/>
-      <c r="BA28" s="69"/>
-      <c r="BB28" s="69"/>
-      <c r="BC28" s="69"/>
-      <c r="BD28" s="69"/>
-      <c r="BE28" s="69"/>
+      <c r="D28" s="80" t="s">
+        <v>29</v>
+      </c>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="66"/>
+      <c r="K28" s="82" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="83"/>
+      <c r="M28" s="83"/>
+      <c r="N28" s="83"/>
+      <c r="O28" s="83"/>
+      <c r="P28" s="83"/>
+      <c r="Q28" s="83"/>
+      <c r="R28" s="83"/>
+      <c r="S28" s="83"/>
+      <c r="T28" s="83"/>
+      <c r="U28" s="83"/>
+      <c r="V28" s="83"/>
+      <c r="W28" s="83"/>
+      <c r="X28" s="83"/>
+      <c r="Y28" s="83"/>
+      <c r="Z28" s="83"/>
+      <c r="AA28" s="83"/>
+      <c r="AB28" s="83"/>
+      <c r="AC28" s="83"/>
+      <c r="AD28" s="83"/>
+      <c r="AE28" s="83"/>
+      <c r="AF28" s="83"/>
+      <c r="AG28" s="83"/>
+      <c r="AH28" s="83"/>
+      <c r="AI28" s="83"/>
+      <c r="AJ28" s="83"/>
+      <c r="AK28" s="83"/>
+      <c r="AL28" s="83"/>
+      <c r="AM28" s="83"/>
+      <c r="AN28" s="83"/>
+      <c r="AO28" s="84"/>
+      <c r="BY28" s="63"/>
     </row>
-    <row r="29" spans="2:77" s="62" customFormat="1" ht="89.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="72" t="s">
-        <v>30</v>
-      </c>
-      <c r="C29" s="73"/>
-      <c r="D29" s="76" t="s">
-        <v>29</v>
-      </c>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="76"/>
-      <c r="I29" s="77"/>
+    <row r="29" spans="2:77" s="62" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="71"/>
+      <c r="D29" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="91"/>
+      <c r="F29" s="91"/>
+      <c r="G29" s="91"/>
+      <c r="H29" s="91"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="66"/>
-      <c r="K29" s="78" t="s">
-        <v>28</v>
-      </c>
-      <c r="L29" s="79"/>
-      <c r="M29" s="79"/>
-      <c r="N29" s="79"/>
-      <c r="O29" s="79"/>
-      <c r="P29" s="79"/>
-      <c r="Q29" s="79"/>
-      <c r="R29" s="79"/>
-      <c r="S29" s="79"/>
-      <c r="T29" s="79"/>
-      <c r="U29" s="79"/>
-      <c r="V29" s="79"/>
-      <c r="W29" s="79"/>
-      <c r="X29" s="79"/>
-      <c r="Y29" s="79"/>
-      <c r="Z29" s="79"/>
-      <c r="AA29" s="79"/>
-      <c r="AB29" s="79"/>
-      <c r="AC29" s="79"/>
-      <c r="AD29" s="79"/>
-      <c r="AE29" s="79"/>
-      <c r="AF29" s="79"/>
-      <c r="AG29" s="79"/>
-      <c r="AH29" s="79"/>
-      <c r="AI29" s="79"/>
-      <c r="AJ29" s="79"/>
-      <c r="AK29" s="79"/>
-      <c r="AL29" s="79"/>
-      <c r="AM29" s="79"/>
-      <c r="AN29" s="79"/>
-      <c r="AO29" s="80"/>
+      <c r="K29" s="82"/>
+      <c r="L29" s="83"/>
+      <c r="M29" s="83"/>
+      <c r="N29" s="83"/>
+      <c r="O29" s="83"/>
+      <c r="P29" s="83"/>
+      <c r="Q29" s="83"/>
+      <c r="R29" s="83"/>
+      <c r="S29" s="83"/>
+      <c r="T29" s="83"/>
+      <c r="U29" s="83"/>
+      <c r="V29" s="83"/>
+      <c r="W29" s="83"/>
+      <c r="X29" s="83"/>
+      <c r="Y29" s="83"/>
+      <c r="Z29" s="83"/>
+      <c r="AA29" s="83"/>
+      <c r="AB29" s="83"/>
+      <c r="AC29" s="83"/>
+      <c r="AD29" s="83"/>
+      <c r="AE29" s="83"/>
+      <c r="AF29" s="83"/>
+      <c r="AG29" s="83"/>
+      <c r="AH29" s="83"/>
+      <c r="AI29" s="83"/>
+      <c r="AJ29" s="83"/>
+      <c r="AK29" s="83"/>
+      <c r="AL29" s="83"/>
+      <c r="AM29" s="83"/>
+      <c r="AN29" s="83"/>
+      <c r="AO29" s="84"/>
       <c r="BY29" s="63"/>
     </row>
-    <row r="30" spans="2:77" s="62" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="72" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="73"/>
-      <c r="D30" s="74" t="s">
-        <v>24</v>
-      </c>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="75"/>
+    <row r="30" spans="2:77" s="62" customFormat="1" ht="225.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="70" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="71"/>
+      <c r="D30" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="92"/>
       <c r="J30" s="66"/>
-      <c r="K30" s="78"/>
-      <c r="L30" s="79"/>
-      <c r="M30" s="79"/>
-      <c r="N30" s="79"/>
-      <c r="O30" s="79"/>
-      <c r="P30" s="79"/>
-      <c r="Q30" s="79"/>
-      <c r="R30" s="79"/>
-      <c r="S30" s="79"/>
-      <c r="T30" s="79"/>
-      <c r="U30" s="79"/>
-      <c r="V30" s="79"/>
-      <c r="W30" s="79"/>
-      <c r="X30" s="79"/>
-      <c r="Y30" s="79"/>
-      <c r="Z30" s="79"/>
-      <c r="AA30" s="79"/>
-      <c r="AB30" s="79"/>
-      <c r="AC30" s="79"/>
-      <c r="AD30" s="79"/>
-      <c r="AE30" s="79"/>
-      <c r="AF30" s="79"/>
-      <c r="AG30" s="79"/>
-      <c r="AH30" s="79"/>
-      <c r="AI30" s="79"/>
-      <c r="AJ30" s="79"/>
-      <c r="AK30" s="79"/>
-      <c r="AL30" s="79"/>
-      <c r="AM30" s="79"/>
-      <c r="AN30" s="79"/>
-      <c r="AO30" s="80"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="66"/>
+      <c r="N30" s="66"/>
+      <c r="O30" s="66"/>
+      <c r="P30" s="66"/>
+      <c r="Q30" s="66"/>
+      <c r="R30" s="66"/>
+      <c r="S30" s="66"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="66"/>
       <c r="BY30" s="63"/>
     </row>
-    <row r="31" spans="2:77" s="62" customFormat="1" ht="225.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="72" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="73"/>
-      <c r="D31" s="74" t="s">
-        <v>25</v>
-      </c>
-      <c r="E31" s="74"/>
-      <c r="F31" s="74"/>
-      <c r="G31" s="74"/>
-      <c r="H31" s="74"/>
-      <c r="I31" s="75"/>
+    <row r="31" spans="2:77" s="62" customFormat="1" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="C31" s="71"/>
+      <c r="D31" s="80" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="80"/>
+      <c r="F31" s="80"/>
+      <c r="G31" s="80"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="81"/>
       <c r="J31" s="66"/>
       <c r="K31" s="66"/>
       <c r="L31" s="66"/>
@@ -5099,18 +5021,18 @@
       <c r="BY31" s="63"/>
     </row>
     <row r="32" spans="2:77" s="62" customFormat="1" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="72" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="73"/>
-      <c r="D32" s="76" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="76"/>
-      <c r="I32" s="77"/>
+      <c r="B32" s="70" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E32" s="72"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="73"/>
       <c r="J32" s="66"/>
       <c r="K32" s="66"/>
       <c r="L32" s="66"/>
@@ -5133,19 +5055,16 @@
       <c r="AC32" s="66"/>
       <c r="BY32" s="63"/>
     </row>
-    <row r="33" spans="1:77" s="62" customFormat="1" ht="73" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B33" s="72" t="s">
-        <v>38</v>
-      </c>
-      <c r="C33" s="73"/>
-      <c r="D33" s="91" t="s">
-        <v>39</v>
-      </c>
-      <c r="E33" s="91"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
-      <c r="I33" s="92"/>
+    <row r="33" spans="1:77" s="62" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="66"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="66"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="66"/>
+      <c r="F33" s="66"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
+      <c r="I33" s="66"/>
       <c r="J33" s="66"/>
       <c r="K33" s="66"/>
       <c r="L33" s="66"/>
@@ -5157,16 +5076,7 @@
       <c r="R33" s="66"/>
       <c r="S33" s="66"/>
       <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="BY33" s="63"/>
+      <c r="BP33" s="63"/>
     </row>
     <row r="34" spans="1:77" s="62" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A34" s="66"/>
@@ -5260,11 +5170,10 @@
       <c r="T37" s="66"/>
       <c r="BP37" s="63"/>
     </row>
-    <row r="38" spans="1:77" s="62" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A38" s="66"/>
-      <c r="B38" s="66"/>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
+    <row r="38" spans="1:77" s="62" customFormat="1" ht="17" x14ac:dyDescent="0.35">
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="65"/>
       <c r="E38" s="66"/>
       <c r="F38" s="66"/>
       <c r="G38" s="66"/>
@@ -5281,7 +5190,16 @@
       <c r="R38" s="66"/>
       <c r="S38" s="66"/>
       <c r="T38" s="66"/>
-      <c r="BP38" s="63"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="66"/>
+      <c r="BY38" s="63"/>
     </row>
     <row r="39" spans="1:77" s="62" customFormat="1" ht="17" x14ac:dyDescent="0.35">
       <c r="B39" s="64"/>
@@ -5407,7 +5325,7 @@
       <c r="AC42" s="66"/>
       <c r="BY42" s="63"/>
     </row>
-    <row r="43" spans="1:77" s="62" customFormat="1" ht="17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:77" s="62" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B43" s="64"/>
       <c r="C43" s="65"/>
       <c r="D43" s="65"/>
@@ -5438,47 +5356,13 @@
       <c r="AC43" s="66"/>
       <c r="BY43" s="63"/>
     </row>
-    <row r="44" spans="1:77" s="62" customFormat="1" ht="50.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="66"/>
-      <c r="H44" s="66"/>
-      <c r="I44" s="66"/>
-      <c r="J44" s="66"/>
-      <c r="K44" s="66"/>
-      <c r="L44" s="66"/>
-      <c r="M44" s="66"/>
-      <c r="N44" s="66"/>
-      <c r="O44" s="66"/>
-      <c r="P44" s="66"/>
-      <c r="Q44" s="66"/>
-      <c r="R44" s="66"/>
-      <c r="S44" s="66"/>
-      <c r="T44" s="66"/>
-      <c r="U44" s="66"/>
-      <c r="V44" s="66"/>
-      <c r="W44" s="66"/>
-      <c r="X44" s="66"/>
-      <c r="Y44" s="66"/>
-      <c r="Z44" s="66"/>
-      <c r="AA44" s="66"/>
-      <c r="AB44" s="66"/>
-      <c r="AC44" s="66"/>
-      <c r="BY44" s="63"/>
-    </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertRows="0" deleteRows="0"/>
   <mergeCells count="25">
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:I33"/>
-    <mergeCell ref="AJ5:AN7"/>
-    <mergeCell ref="P5:T7"/>
-    <mergeCell ref="U5:Y7"/>
-    <mergeCell ref="Z5:AD7"/>
-    <mergeCell ref="AE5:AI7"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:I30"/>
     <mergeCell ref="C3:I4"/>
     <mergeCell ref="D6:E6"/>
     <mergeCell ref="K5:O7"/>
@@ -5486,25 +5370,28 @@
     <mergeCell ref="C9:I9"/>
     <mergeCell ref="B32:C32"/>
     <mergeCell ref="D32:I32"/>
-    <mergeCell ref="K29:AO29"/>
-    <mergeCell ref="K30:AO30"/>
-    <mergeCell ref="K28:AO28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D28:I28"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:I30"/>
+    <mergeCell ref="AJ5:AN7"/>
+    <mergeCell ref="P5:T7"/>
+    <mergeCell ref="U5:Y7"/>
+    <mergeCell ref="Z5:AD7"/>
+    <mergeCell ref="AE5:AI7"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="D31:I31"/>
+    <mergeCell ref="K28:AO28"/>
+    <mergeCell ref="K29:AO29"/>
+    <mergeCell ref="K27:AO27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:I28"/>
+    <mergeCell ref="D27:I27"/>
+    <mergeCell ref="B27:C27"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="K8:AN8">
-    <cfRule type="expression" dxfId="19" priority="162">
+    <cfRule type="expression" dxfId="16" priority="162">
       <formula>$K$8=TODAY()</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:I26 I11:I12 I14:I15">
+  <conditionalFormatting sqref="I18:I25 I11:I12 I14:I15">
     <cfRule type="dataBar" priority="43">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5518,22 +5405,22 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H12 H14:H15 H19:H26">
-    <cfRule type="cellIs" dxfId="18" priority="39" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="H12 H14:H15 H18:H25">
+    <cfRule type="cellIs" dxfId="15" priority="39" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="40" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="40" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="41" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="41" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K12:AN26">
-    <cfRule type="expression" dxfId="15" priority="163">
+  <conditionalFormatting sqref="K12:AN25">
+    <cfRule type="expression" dxfId="12" priority="163">
       <formula>AND($I12&gt;5%, $E12&lt;=K$8,ROUNDDOWN(NETWORKDAYS($E12,$F12)*$I12,0)+$E12+1&gt;=K$8)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="164">
+    <cfRule type="expression" dxfId="11" priority="164">
       <formula>AND(NOT(ISBLANK($E12)),$E12&lt;=K$8,$F12&gt;=K$8)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5552,13 +5439,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="cellIs" dxfId="13" priority="25" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="25" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="26" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5577,13 +5464,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="cellIs" dxfId="10" priority="19" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="19" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="20" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="20" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="21" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="21" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5602,38 +5489,13 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="7" priority="13" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="13" stopIfTrue="1" operator="equal">
       <formula>"Yellow"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="14" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="14" stopIfTrue="1" operator="equal">
       <formula>"Green"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="15" stopIfTrue="1" operator="equal">
-      <formula>"Red"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I18">
-    <cfRule type="dataBar" priority="4">
-      <dataBar>
-        <cfvo type="num" val="0"/>
-        <cfvo type="num" val="1"/>
-        <color theme="9" tint="-0.249977111117893"/>
-      </dataBar>
-      <extLst>
-        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{FACC1E94-9220-4E70-9F96-3627822B5AA2}</x14:id>
-        </ext>
-      </extLst>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H18">
-    <cfRule type="cellIs" dxfId="4" priority="1" stopIfTrue="1" operator="equal">
-      <formula>"Yellow"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" stopIfTrue="1" operator="equal">
-      <formula>"Green"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="15" stopIfTrue="1" operator="equal">
       <formula>"Red"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5646,10 +5508,10 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D14 D23:D25 D16:D21" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D14 D22:D24 D16:D20" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Low, Medium,High"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H14 H23:H25 H16:H21" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H12:H14 H22:H24 H16:H20" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Red, Yellow,Green"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5673,7 +5535,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>I19:I26 I11:I12 I14:I15</xm:sqref>
+          <xm:sqref>I18:I25 I11:I12 I14:I15</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{C62A6621-A3CE-40E1-A5FF-9C7C62959795}">
@@ -5720,21 +5582,6 @@
           </x14:cfRule>
           <xm:sqref>I13</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{FACC1E94-9220-4E70-9F96-3627822B5AA2}">
-            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:negativeFillColor rgb="FFFF0000"/>
-              <x14:axisColor rgb="FF000000"/>
-            </x14:dataBar>
-          </x14:cfRule>
-          <xm:sqref>I18</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>
